--- a/Oil & Gas.xlsx
+++ b/Oil & Gas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba650176d78d5c06/Documents/GitHub/Data Extract from Web/dataextract/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FD93FE0-99F1-43F7-A61D-80953181FC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7663D5-22BF-458F-988E-18649F0B6BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="61">
   <si>
     <t>IEA</t>
   </si>
@@ -51,37 +51,16 @@
     <t>IEA NZE</t>
   </si>
   <si>
-    <t>Natural Gas Upstream</t>
-  </si>
-  <si>
     <t>Gt CO2-eq</t>
-  </si>
-  <si>
-    <t>Natural Gas Downstream</t>
-  </si>
-  <si>
-    <t>Oil Upstream</t>
-  </si>
-  <si>
-    <t>Oil Downstream</t>
   </si>
   <si>
     <t>Oil and gas Upstream and downstream</t>
   </si>
   <si>
-    <t>Oil and gas emissions</t>
-  </si>
-  <si>
     <t>kg-CO2eq/boe</t>
   </si>
   <si>
-    <t>Natural gas up and downstream</t>
-  </si>
-  <si>
     <t>kgCO2-eq/boe</t>
-  </si>
-  <si>
-    <t>Oil up and downstream</t>
   </si>
   <si>
     <t>Oil production</t>
@@ -202,6 +181,39 @@
   </si>
   <si>
     <t>EJ</t>
+  </si>
+  <si>
+    <t>Natural Gas Upstream emission Intensity</t>
+  </si>
+  <si>
+    <t>Natural Gas Upstream absolute emissions</t>
+  </si>
+  <si>
+    <t>Natural Gas Downstream emission intensity</t>
+  </si>
+  <si>
+    <t>Oil Upstream emission intensity</t>
+  </si>
+  <si>
+    <t>Oil Downstream emission intensity</t>
+  </si>
+  <si>
+    <t>Oil up and downstream intensity</t>
+  </si>
+  <si>
+    <t>Natural gas up and downstream emission intensity</t>
+  </si>
+  <si>
+    <t>Oil and gas emissions emission intensity</t>
+  </si>
+  <si>
+    <t>Oil Downstream absolute emissions</t>
+  </si>
+  <si>
+    <t>Oil Upstream absolute emissions</t>
+  </si>
+  <si>
+    <t>Natural Gas Downstream absolute emissions</t>
   </si>
 </sst>
 </file>
@@ -526,17 +538,18 @@
   </sheetPr>
   <dimension ref="A1:Y767"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="A11:E11"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+    <col min="1" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -585,7 +598,7 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
     </row>
-    <row r="2" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -593,10 +606,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="7">
         <v>1.1200000000000001</v>
@@ -634,7 +647,7 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
     </row>
-    <row r="3" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -642,10 +655,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="7">
         <v>0.53</v>
@@ -683,7 +696,7 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
     </row>
-    <row r="4" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -691,10 +704,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="7">
         <v>2.0699999999999998</v>
@@ -732,7 +745,7 @@
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
     </row>
-    <row r="5" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -740,10 +753,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="7">
         <v>1.33</v>
@@ -781,7 +794,7 @@
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
     </row>
-    <row r="6" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -789,10 +802,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="7">
         <v>5.0529999999999999</v>
@@ -830,7 +843,7 @@
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
     </row>
-    <row r="7" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
@@ -838,10 +851,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E7" s="7">
         <v>88.4</v>
@@ -879,7 +892,7 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
     </row>
-    <row r="8" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
@@ -887,10 +900,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E8" s="7">
         <v>65.2</v>
@@ -920,7 +933,7 @@
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
     </row>
-    <row r="9" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -928,10 +941,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E9" s="7">
         <v>44.2</v>
@@ -969,7 +982,7 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
     </row>
-    <row r="10" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -977,10 +990,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E10" s="7">
         <v>21</v>
@@ -1018,7 +1031,7 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
     </row>
-    <row r="11" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
@@ -1026,10 +1039,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E11" s="7">
         <v>103.4</v>
@@ -1067,7 +1080,7 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
     </row>
-    <row r="12" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
@@ -1075,10 +1088,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="E12" s="7">
         <v>63</v>
@@ -1116,7 +1129,7 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
     </row>
-    <row r="13" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
@@ -1124,10 +1137,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E13" s="7">
         <v>40.5</v>
@@ -1165,7 +1178,7 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
     </row>
-    <row r="14" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
@@ -1173,10 +1186,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
@@ -1214,7 +1227,7 @@
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
     </row>
-    <row r="15" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>0</v>
       </c>
@@ -1222,10 +1235,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E15" s="7">
         <v>0</v>
@@ -1263,7 +1276,7 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
     </row>
-    <row r="16" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>0</v>
       </c>
@@ -1271,10 +1284,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E16" s="7">
         <v>0</v>
@@ -1312,7 +1325,7 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
     </row>
-    <row r="17" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>0</v>
       </c>
@@ -1320,10 +1333,10 @@
         <v>5</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E17" s="7">
         <v>0</v>
@@ -1361,7 +1374,7 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
     </row>
-    <row r="18" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>0</v>
       </c>
@@ -1369,10 +1382,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E18" s="7">
         <v>92</v>
@@ -1410,7 +1423,7 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
     </row>
-    <row r="19" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>0</v>
       </c>
@@ -1418,10 +1431,10 @@
         <v>5</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E19" s="7">
         <v>2.5299999999999998</v>
@@ -1459,7 +1472,7 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
     </row>
-    <row r="20" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>0</v>
       </c>
@@ -1467,10 +1480,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E20" s="7">
         <v>0.08</v>
@@ -1508,7 +1521,7 @@
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
     </row>
-    <row r="21" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>0</v>
       </c>
@@ -1516,10 +1529,10 @@
         <v>5</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E21" s="7">
         <v>58242</v>
@@ -1557,7 +1570,7 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
     </row>
-    <row r="22" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>0</v>
       </c>
@@ -1565,10 +1578,10 @@
         <v>5</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E22" s="7">
         <v>32876</v>
@@ -1606,7 +1619,7 @@
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
     </row>
-    <row r="23" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>0</v>
       </c>
@@ -1614,10 +1627,10 @@
         <v>5</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E23" s="7">
         <v>7.6</v>
@@ -1655,7 +1668,7 @@
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
     </row>
-    <row r="24" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>0</v>
       </c>
@@ -1663,10 +1676,10 @@
         <v>5</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E24" s="7">
         <v>7.16</v>
@@ -1704,7 +1717,7 @@
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
     </row>
-    <row r="25" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>0</v>
       </c>
@@ -1712,10 +1725,10 @@
         <v>5</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E25" s="7">
         <v>14.75</v>
@@ -1753,7 +1766,7 @@
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
     </row>
-    <row r="26" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>0</v>
       </c>
@@ -1761,10 +1774,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E26" s="7">
         <v>249.7</v>
@@ -1802,7 +1815,7 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
     </row>
-    <row r="27" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>0</v>
       </c>
@@ -1810,10 +1823,10 @@
         <v>5</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E27" s="7">
         <v>235.3</v>
@@ -1851,7 +1864,7 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
     </row>
-    <row r="28" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>0</v>
       </c>
@@ -1859,10 +1872,10 @@
         <v>5</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E28" s="8">
         <v>485</v>
@@ -1900,7 +1913,7 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
     </row>
-    <row r="29" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>0</v>
       </c>
@@ -1908,10 +1921,10 @@
         <v>5</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E29" s="7">
         <v>14.75</v>
@@ -1949,7 +1962,7 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
     </row>
-    <row r="30" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>0</v>
       </c>
@@ -1957,10 +1970,10 @@
         <v>5</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E30" s="7">
         <v>7.6</v>
@@ -1998,7 +2011,7 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
     </row>
-    <row r="31" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>0</v>
       </c>
@@ -2006,10 +2019,10 @@
         <v>5</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E31" s="7">
         <v>7.16</v>
@@ -2047,7 +2060,7 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
     </row>
-    <row r="32" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>0</v>
       </c>
@@ -2055,10 +2068,10 @@
         <v>5</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E32" s="7">
         <v>4.43</v>
@@ -2096,7 +2109,7 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>0</v>
       </c>
@@ -2104,10 +2117,10 @@
         <v>5</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E33" s="7">
         <v>2.2799999999999998</v>
@@ -2145,7 +2158,7 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>0</v>
       </c>
@@ -2153,10 +2166,10 @@
         <v>5</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E34" s="7">
         <v>2.15</v>
@@ -2194,7 +2207,7 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
     </row>
-    <row r="35" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>0</v>
       </c>
@@ -2202,10 +2215,10 @@
         <v>5</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E35" s="7">
         <v>2.6</v>
@@ -2243,7 +2256,7 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
     </row>
-    <row r="36" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>0</v>
       </c>
@@ -2251,10 +2264,10 @@
         <v>5</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E36" s="7">
         <v>1.34</v>
@@ -2292,7 +2305,7 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>0</v>
       </c>
@@ -2300,10 +2313,10 @@
         <v>5</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E37" s="7">
         <v>1.26</v>
@@ -2341,7 +2354,7 @@
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
     </row>
-    <row r="38" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>0</v>
       </c>
@@ -2349,10 +2362,10 @@
         <v>5</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E38" s="7">
         <v>0.78</v>
@@ -2390,7 +2403,7 @@
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
     </row>
-    <row r="39" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>0</v>
       </c>
@@ -2398,10 +2411,10 @@
         <v>5</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E39" s="7">
         <v>0.4</v>
@@ -2439,7 +2452,7 @@
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
     </row>
-    <row r="40" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>0</v>
       </c>
@@ -2447,10 +2460,10 @@
         <v>5</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E40" s="7">
         <v>0.38</v>
@@ -2488,7 +2501,7 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
     </row>
-    <row r="41" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>0</v>
       </c>
@@ -2496,10 +2509,10 @@
         <v>5</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E41" s="7">
         <v>485</v>
@@ -2537,7 +2550,7 @@
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
     </row>
-    <row r="42" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>0</v>
       </c>
@@ -2545,10 +2558,10 @@
         <v>5</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E42" s="7">
         <v>249.7</v>
@@ -2586,7 +2599,7 @@
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
     </row>
-    <row r="43" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>0</v>
       </c>
@@ -2594,10 +2607,10 @@
         <v>5</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E43" s="7">
         <v>235.3</v>
@@ -2635,7 +2648,7 @@
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
     </row>
-    <row r="44" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>0</v>
       </c>
@@ -2643,10 +2656,10 @@
         <v>5</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E44" s="7">
         <v>145.5</v>
@@ -2684,7 +2697,7 @@
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
     </row>
-    <row r="45" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>0</v>
       </c>
@@ -2692,10 +2705,10 @@
         <v>5</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E45" s="7">
         <v>74.91</v>
@@ -2733,7 +2746,7 @@
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
     </row>
-    <row r="46" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>0</v>
       </c>
@@ -2741,10 +2754,10 @@
         <v>5</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E46" s="7">
         <v>70.59</v>
@@ -2782,7 +2795,7 @@
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
     </row>
-    <row r="47" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>0</v>
       </c>
@@ -2790,10 +2803,10 @@
         <v>5</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47" s="7">
         <v>0.49</v>
@@ -2831,7 +2844,7 @@
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
     </row>
-    <row r="48" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>0</v>
       </c>
@@ -2839,10 +2852,10 @@
         <v>5</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E48" s="7">
         <v>2.6</v>
@@ -2880,7 +2893,7 @@
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
     </row>
-    <row r="49" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>0</v>
       </c>
@@ -2888,10 +2901,10 @@
         <v>5</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E49" s="7">
         <v>186.74</v>
@@ -2929,7 +2942,7 @@
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
     </row>
-    <row r="50" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="8"/>
@@ -2956,7 +2969,7 @@
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
     </row>
-    <row r="51" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="8"/>
@@ -2983,7 +2996,7 @@
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
     </row>
-    <row r="52" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="8"/>
@@ -3010,7 +3023,7 @@
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
     </row>
-    <row r="53" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="8"/>
@@ -3037,7 +3050,7 @@
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
     </row>
-    <row r="54" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="8"/>
@@ -3064,7 +3077,7 @@
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
     </row>
-    <row r="55" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="8"/>
@@ -3091,7 +3104,7 @@
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
     </row>
-    <row r="56" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="8"/>
@@ -3118,7 +3131,7 @@
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
     </row>
-    <row r="57" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="8"/>
@@ -3145,7 +3158,7 @@
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
     </row>
-    <row r="58" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="8"/>
@@ -3172,7 +3185,7 @@
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
     </row>
-    <row r="59" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="8"/>
@@ -3199,7 +3212,7 @@
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
     </row>
-    <row r="60" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="8"/>
@@ -3226,7 +3239,7 @@
       <c r="X60" s="5"/>
       <c r="Y60" s="5"/>
     </row>
-    <row r="61" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="8"/>
@@ -3253,7 +3266,7 @@
       <c r="X61" s="5"/>
       <c r="Y61" s="5"/>
     </row>
-    <row r="62" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="8"/>
@@ -3280,7 +3293,7 @@
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
     </row>
-    <row r="63" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="8"/>
@@ -3307,7 +3320,7 @@
       <c r="X63" s="5"/>
       <c r="Y63" s="5"/>
     </row>
-    <row r="64" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="8"/>
@@ -3334,7 +3347,7 @@
       <c r="X64" s="5"/>
       <c r="Y64" s="5"/>
     </row>
-    <row r="65" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="8"/>
@@ -3361,7 +3374,7 @@
       <c r="X65" s="5"/>
       <c r="Y65" s="5"/>
     </row>
-    <row r="66" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="8"/>
@@ -3388,7 +3401,7 @@
       <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
     </row>
-    <row r="67" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="8"/>
@@ -3415,7 +3428,7 @@
       <c r="X67" s="5"/>
       <c r="Y67" s="5"/>
     </row>
-    <row r="68" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="8"/>
@@ -3442,7 +3455,7 @@
       <c r="X68" s="5"/>
       <c r="Y68" s="5"/>
     </row>
-    <row r="69" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="8"/>
@@ -3469,7 +3482,7 @@
       <c r="X69" s="5"/>
       <c r="Y69" s="5"/>
     </row>
-    <row r="70" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="8"/>
@@ -3496,7 +3509,7 @@
       <c r="X70" s="5"/>
       <c r="Y70" s="5"/>
     </row>
-    <row r="71" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="8"/>
@@ -3523,7 +3536,7 @@
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
     </row>
-    <row r="72" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="8"/>
@@ -3550,7 +3563,7 @@
       <c r="X72" s="5"/>
       <c r="Y72" s="5"/>
     </row>
-    <row r="73" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="8"/>
@@ -3577,7 +3590,7 @@
       <c r="X73" s="5"/>
       <c r="Y73" s="5"/>
     </row>
-    <row r="74" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="8"/>
@@ -3604,7 +3617,7 @@
       <c r="X74" s="5"/>
       <c r="Y74" s="5"/>
     </row>
-    <row r="75" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="8"/>
@@ -3631,7 +3644,7 @@
       <c r="X75" s="5"/>
       <c r="Y75" s="5"/>
     </row>
-    <row r="76" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="8"/>
@@ -3658,7 +3671,7 @@
       <c r="X76" s="5"/>
       <c r="Y76" s="5"/>
     </row>
-    <row r="77" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="8"/>
@@ -3685,7 +3698,7 @@
       <c r="X77" s="5"/>
       <c r="Y77" s="5"/>
     </row>
-    <row r="78" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="8"/>
@@ -3712,7 +3725,7 @@
       <c r="X78" s="5"/>
       <c r="Y78" s="5"/>
     </row>
-    <row r="79" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="8"/>
@@ -3739,7 +3752,7 @@
       <c r="X79" s="5"/>
       <c r="Y79" s="5"/>
     </row>
-    <row r="80" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="8"/>
@@ -3766,7 +3779,7 @@
       <c r="X80" s="5"/>
       <c r="Y80" s="5"/>
     </row>
-    <row r="81" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="8"/>
@@ -3793,7 +3806,7 @@
       <c r="X81" s="5"/>
       <c r="Y81" s="5"/>
     </row>
-    <row r="82" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="8"/>
@@ -3820,7 +3833,7 @@
       <c r="X82" s="5"/>
       <c r="Y82" s="5"/>
     </row>
-    <row r="83" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="8"/>
@@ -3847,7 +3860,7 @@
       <c r="X83" s="5"/>
       <c r="Y83" s="5"/>
     </row>
-    <row r="84" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="8"/>
@@ -3874,7 +3887,7 @@
       <c r="X84" s="5"/>
       <c r="Y84" s="5"/>
     </row>
-    <row r="85" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="8"/>
@@ -3901,7 +3914,7 @@
       <c r="X85" s="5"/>
       <c r="Y85" s="5"/>
     </row>
-    <row r="86" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="8"/>
@@ -3928,7 +3941,7 @@
       <c r="X86" s="5"/>
       <c r="Y86" s="5"/>
     </row>
-    <row r="87" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="8"/>
@@ -3955,7 +3968,7 @@
       <c r="X87" s="5"/>
       <c r="Y87" s="5"/>
     </row>
-    <row r="88" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="8"/>
@@ -3982,7 +3995,7 @@
       <c r="X88" s="5"/>
       <c r="Y88" s="5"/>
     </row>
-    <row r="89" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="8"/>
@@ -4009,7 +4022,7 @@
       <c r="X89" s="5"/>
       <c r="Y89" s="5"/>
     </row>
-    <row r="90" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="8"/>
@@ -4036,7 +4049,7 @@
       <c r="X90" s="5"/>
       <c r="Y90" s="5"/>
     </row>
-    <row r="91" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="8"/>
@@ -4063,7 +4076,7 @@
       <c r="X91" s="5"/>
       <c r="Y91" s="5"/>
     </row>
-    <row r="92" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="8"/>
@@ -4090,7 +4103,7 @@
       <c r="X92" s="5"/>
       <c r="Y92" s="5"/>
     </row>
-    <row r="93" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="8"/>
@@ -4117,7 +4130,7 @@
       <c r="X93" s="5"/>
       <c r="Y93" s="5"/>
     </row>
-    <row r="94" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="8"/>
@@ -4144,7 +4157,7 @@
       <c r="X94" s="5"/>
       <c r="Y94" s="5"/>
     </row>
-    <row r="95" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="8"/>
@@ -4171,7 +4184,7 @@
       <c r="X95" s="5"/>
       <c r="Y95" s="5"/>
     </row>
-    <row r="96" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="8"/>
@@ -4198,7 +4211,7 @@
       <c r="X96" s="5"/>
       <c r="Y96" s="5"/>
     </row>
-    <row r="97" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="8"/>
@@ -4225,7 +4238,7 @@
       <c r="X97" s="5"/>
       <c r="Y97" s="5"/>
     </row>
-    <row r="98" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="8"/>
@@ -4252,7 +4265,7 @@
       <c r="X98" s="5"/>
       <c r="Y98" s="5"/>
     </row>
-    <row r="99" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="8"/>
@@ -4279,7 +4292,7 @@
       <c r="X99" s="5"/>
       <c r="Y99" s="5"/>
     </row>
-    <row r="100" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="8"/>
@@ -4306,7 +4319,7 @@
       <c r="X100" s="5"/>
       <c r="Y100" s="5"/>
     </row>
-    <row r="101" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="8"/>
@@ -4333,7 +4346,7 @@
       <c r="X101" s="5"/>
       <c r="Y101" s="5"/>
     </row>
-    <row r="102" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="8"/>
@@ -4360,7 +4373,7 @@
       <c r="X102" s="5"/>
       <c r="Y102" s="5"/>
     </row>
-    <row r="103" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="8"/>
@@ -4387,7 +4400,7 @@
       <c r="X103" s="5"/>
       <c r="Y103" s="5"/>
     </row>
-    <row r="104" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="8"/>
@@ -4414,7 +4427,7 @@
       <c r="X104" s="5"/>
       <c r="Y104" s="5"/>
     </row>
-    <row r="105" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="8"/>
@@ -4441,7 +4454,7 @@
       <c r="X105" s="5"/>
       <c r="Y105" s="5"/>
     </row>
-    <row r="106" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="8"/>
@@ -4468,7 +4481,7 @@
       <c r="X106" s="5"/>
       <c r="Y106" s="5"/>
     </row>
-    <row r="107" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="8"/>
@@ -4495,7 +4508,7 @@
       <c r="X107" s="5"/>
       <c r="Y107" s="5"/>
     </row>
-    <row r="108" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="8"/>
@@ -4522,7 +4535,7 @@
       <c r="X108" s="5"/>
       <c r="Y108" s="5"/>
     </row>
-    <row r="109" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="8"/>
@@ -4549,7 +4562,7 @@
       <c r="X109" s="5"/>
       <c r="Y109" s="5"/>
     </row>
-    <row r="110" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="8"/>
@@ -4576,7 +4589,7 @@
       <c r="X110" s="5"/>
       <c r="Y110" s="5"/>
     </row>
-    <row r="111" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="8"/>
@@ -4603,7 +4616,7 @@
       <c r="X111" s="5"/>
       <c r="Y111" s="5"/>
     </row>
-    <row r="112" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="8"/>
@@ -4630,7 +4643,7 @@
       <c r="X112" s="5"/>
       <c r="Y112" s="5"/>
     </row>
-    <row r="113" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="8"/>
@@ -4657,7 +4670,7 @@
       <c r="X113" s="5"/>
       <c r="Y113" s="5"/>
     </row>
-    <row r="114" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="8"/>
@@ -4684,7 +4697,7 @@
       <c r="X114" s="5"/>
       <c r="Y114" s="5"/>
     </row>
-    <row r="115" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="8"/>
@@ -4711,7 +4724,7 @@
       <c r="X115" s="5"/>
       <c r="Y115" s="5"/>
     </row>
-    <row r="116" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="8"/>
@@ -4738,7 +4751,7 @@
       <c r="X116" s="5"/>
       <c r="Y116" s="5"/>
     </row>
-    <row r="117" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="8"/>
@@ -4765,7 +4778,7 @@
       <c r="X117" s="5"/>
       <c r="Y117" s="5"/>
     </row>
-    <row r="118" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="8"/>
@@ -4792,7 +4805,7 @@
       <c r="X118" s="5"/>
       <c r="Y118" s="5"/>
     </row>
-    <row r="119" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="8"/>
@@ -4819,7 +4832,7 @@
       <c r="X119" s="5"/>
       <c r="Y119" s="5"/>
     </row>
-    <row r="120" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="8"/>
@@ -4846,7 +4859,7 @@
       <c r="X120" s="5"/>
       <c r="Y120" s="5"/>
     </row>
-    <row r="121" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="8"/>
@@ -4873,7 +4886,7 @@
       <c r="X121" s="5"/>
       <c r="Y121" s="5"/>
     </row>
-    <row r="122" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="8"/>
@@ -4900,7 +4913,7 @@
       <c r="X122" s="5"/>
       <c r="Y122" s="5"/>
     </row>
-    <row r="123" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="8"/>
@@ -4927,7 +4940,7 @@
       <c r="X123" s="5"/>
       <c r="Y123" s="5"/>
     </row>
-    <row r="124" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="8"/>
@@ -4954,7 +4967,7 @@
       <c r="X124" s="5"/>
       <c r="Y124" s="5"/>
     </row>
-    <row r="125" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="8"/>
@@ -4981,7 +4994,7 @@
       <c r="X125" s="5"/>
       <c r="Y125" s="5"/>
     </row>
-    <row r="126" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="8"/>
@@ -5008,7 +5021,7 @@
       <c r="X126" s="5"/>
       <c r="Y126" s="5"/>
     </row>
-    <row r="127" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="8"/>
@@ -5035,7 +5048,7 @@
       <c r="X127" s="5"/>
       <c r="Y127" s="5"/>
     </row>
-    <row r="128" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="8"/>
@@ -5062,7 +5075,7 @@
       <c r="X128" s="5"/>
       <c r="Y128" s="5"/>
     </row>
-    <row r="129" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="8"/>
@@ -5089,7 +5102,7 @@
       <c r="X129" s="5"/>
       <c r="Y129" s="5"/>
     </row>
-    <row r="130" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="8"/>
@@ -5116,7 +5129,7 @@
       <c r="X130" s="5"/>
       <c r="Y130" s="5"/>
     </row>
-    <row r="131" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="8"/>
@@ -5143,7 +5156,7 @@
       <c r="X131" s="5"/>
       <c r="Y131" s="5"/>
     </row>
-    <row r="132" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="8"/>
@@ -5170,7 +5183,7 @@
       <c r="X132" s="5"/>
       <c r="Y132" s="5"/>
     </row>
-    <row r="133" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="8"/>
@@ -5197,7 +5210,7 @@
       <c r="X133" s="5"/>
       <c r="Y133" s="5"/>
     </row>
-    <row r="134" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="8"/>
@@ -5224,7 +5237,7 @@
       <c r="X134" s="5"/>
       <c r="Y134" s="5"/>
     </row>
-    <row r="135" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="8"/>
@@ -5251,7 +5264,7 @@
       <c r="X135" s="5"/>
       <c r="Y135" s="5"/>
     </row>
-    <row r="136" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="8"/>
@@ -5278,7 +5291,7 @@
       <c r="X136" s="5"/>
       <c r="Y136" s="5"/>
     </row>
-    <row r="137" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="8"/>
@@ -5305,7 +5318,7 @@
       <c r="X137" s="5"/>
       <c r="Y137" s="5"/>
     </row>
-    <row r="138" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="8"/>
@@ -5332,7 +5345,7 @@
       <c r="X138" s="5"/>
       <c r="Y138" s="5"/>
     </row>
-    <row r="139" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="8"/>
@@ -5359,7 +5372,7 @@
       <c r="X139" s="5"/>
       <c r="Y139" s="5"/>
     </row>
-    <row r="140" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="8"/>
@@ -5386,7 +5399,7 @@
       <c r="X140" s="5"/>
       <c r="Y140" s="5"/>
     </row>
-    <row r="141" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="8"/>
@@ -5413,7 +5426,7 @@
       <c r="X141" s="5"/>
       <c r="Y141" s="5"/>
     </row>
-    <row r="142" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="8"/>
@@ -5440,7 +5453,7 @@
       <c r="X142" s="5"/>
       <c r="Y142" s="5"/>
     </row>
-    <row r="143" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="8"/>
@@ -5467,7 +5480,7 @@
       <c r="X143" s="5"/>
       <c r="Y143" s="5"/>
     </row>
-    <row r="144" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="8"/>
@@ -5494,7 +5507,7 @@
       <c r="X144" s="5"/>
       <c r="Y144" s="5"/>
     </row>
-    <row r="145" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="8"/>
@@ -5521,7 +5534,7 @@
       <c r="X145" s="5"/>
       <c r="Y145" s="5"/>
     </row>
-    <row r="146" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="8"/>
@@ -5548,7 +5561,7 @@
       <c r="X146" s="5"/>
       <c r="Y146" s="5"/>
     </row>
-    <row r="147" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="8"/>
@@ -5575,7 +5588,7 @@
       <c r="X147" s="5"/>
       <c r="Y147" s="5"/>
     </row>
-    <row r="148" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="8"/>
@@ -5602,7 +5615,7 @@
       <c r="X148" s="5"/>
       <c r="Y148" s="5"/>
     </row>
-    <row r="149" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="8"/>
@@ -5629,7 +5642,7 @@
       <c r="X149" s="5"/>
       <c r="Y149" s="5"/>
     </row>
-    <row r="150" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="8"/>
@@ -5656,7 +5669,7 @@
       <c r="X150" s="5"/>
       <c r="Y150" s="5"/>
     </row>
-    <row r="151" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="8"/>
@@ -5683,7 +5696,7 @@
       <c r="X151" s="5"/>
       <c r="Y151" s="5"/>
     </row>
-    <row r="152" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="8"/>
@@ -5710,7 +5723,7 @@
       <c r="X152" s="5"/>
       <c r="Y152" s="5"/>
     </row>
-    <row r="153" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="8"/>
@@ -5737,7 +5750,7 @@
       <c r="X153" s="5"/>
       <c r="Y153" s="5"/>
     </row>
-    <row r="154" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="8"/>
@@ -5764,7 +5777,7 @@
       <c r="X154" s="5"/>
       <c r="Y154" s="5"/>
     </row>
-    <row r="155" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="8"/>
@@ -5791,7 +5804,7 @@
       <c r="X155" s="5"/>
       <c r="Y155" s="5"/>
     </row>
-    <row r="156" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="8"/>
@@ -5818,7 +5831,7 @@
       <c r="X156" s="5"/>
       <c r="Y156" s="5"/>
     </row>
-    <row r="157" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="8"/>
@@ -5845,7 +5858,7 @@
       <c r="X157" s="5"/>
       <c r="Y157" s="5"/>
     </row>
-    <row r="158" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="8"/>
@@ -5872,7 +5885,7 @@
       <c r="X158" s="5"/>
       <c r="Y158" s="5"/>
     </row>
-    <row r="159" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="8"/>
@@ -5899,7 +5912,7 @@
       <c r="X159" s="5"/>
       <c r="Y159" s="5"/>
     </row>
-    <row r="160" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="8"/>
@@ -5926,7 +5939,7 @@
       <c r="X160" s="5"/>
       <c r="Y160" s="5"/>
     </row>
-    <row r="161" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="8"/>
@@ -5953,7 +5966,7 @@
       <c r="X161" s="5"/>
       <c r="Y161" s="5"/>
     </row>
-    <row r="162" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="8"/>
@@ -5980,7 +5993,7 @@
       <c r="X162" s="5"/>
       <c r="Y162" s="5"/>
     </row>
-    <row r="163" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="8"/>
@@ -6007,7 +6020,7 @@
       <c r="X163" s="5"/>
       <c r="Y163" s="5"/>
     </row>
-    <row r="164" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="8"/>
@@ -6034,7 +6047,7 @@
       <c r="X164" s="5"/>
       <c r="Y164" s="5"/>
     </row>
-    <row r="165" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="8"/>
@@ -6061,7 +6074,7 @@
       <c r="X165" s="5"/>
       <c r="Y165" s="5"/>
     </row>
-    <row r="166" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="8"/>
@@ -6088,7 +6101,7 @@
       <c r="X166" s="5"/>
       <c r="Y166" s="5"/>
     </row>
-    <row r="167" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="8"/>
@@ -6115,7 +6128,7 @@
       <c r="X167" s="5"/>
       <c r="Y167" s="5"/>
     </row>
-    <row r="168" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="8"/>
@@ -6142,7 +6155,7 @@
       <c r="X168" s="5"/>
       <c r="Y168" s="5"/>
     </row>
-    <row r="169" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="8"/>
@@ -6169,7 +6182,7 @@
       <c r="X169" s="5"/>
       <c r="Y169" s="5"/>
     </row>
-    <row r="170" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="8"/>
@@ -6196,7 +6209,7 @@
       <c r="X170" s="5"/>
       <c r="Y170" s="5"/>
     </row>
-    <row r="171" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="8"/>
@@ -6223,7 +6236,7 @@
       <c r="X171" s="5"/>
       <c r="Y171" s="5"/>
     </row>
-    <row r="172" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="8"/>
@@ -6250,7 +6263,7 @@
       <c r="X172" s="5"/>
       <c r="Y172" s="5"/>
     </row>
-    <row r="173" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="8"/>
@@ -6277,7 +6290,7 @@
       <c r="X173" s="5"/>
       <c r="Y173" s="5"/>
     </row>
-    <row r="174" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="8"/>
@@ -6304,7 +6317,7 @@
       <c r="X174" s="5"/>
       <c r="Y174" s="5"/>
     </row>
-    <row r="175" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="8"/>
@@ -6331,7 +6344,7 @@
       <c r="X175" s="5"/>
       <c r="Y175" s="5"/>
     </row>
-    <row r="176" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="8"/>
@@ -6358,7 +6371,7 @@
       <c r="X176" s="5"/>
       <c r="Y176" s="5"/>
     </row>
-    <row r="177" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="8"/>
@@ -6385,7 +6398,7 @@
       <c r="X177" s="5"/>
       <c r="Y177" s="5"/>
     </row>
-    <row r="178" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="8"/>
@@ -6412,7 +6425,7 @@
       <c r="X178" s="5"/>
       <c r="Y178" s="5"/>
     </row>
-    <row r="179" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="8"/>
@@ -6439,7 +6452,7 @@
       <c r="X179" s="5"/>
       <c r="Y179" s="5"/>
     </row>
-    <row r="180" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="8"/>
@@ -6466,7 +6479,7 @@
       <c r="X180" s="5"/>
       <c r="Y180" s="5"/>
     </row>
-    <row r="181" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="8"/>
@@ -6493,7 +6506,7 @@
       <c r="X181" s="5"/>
       <c r="Y181" s="5"/>
     </row>
-    <row r="182" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="8"/>
@@ -6520,7 +6533,7 @@
       <c r="X182" s="5"/>
       <c r="Y182" s="5"/>
     </row>
-    <row r="183" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="8"/>
@@ -6547,7 +6560,7 @@
       <c r="X183" s="5"/>
       <c r="Y183" s="5"/>
     </row>
-    <row r="184" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="8"/>
@@ -6574,7 +6587,7 @@
       <c r="X184" s="5"/>
       <c r="Y184" s="5"/>
     </row>
-    <row r="185" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="8"/>
@@ -6601,7 +6614,7 @@
       <c r="X185" s="5"/>
       <c r="Y185" s="5"/>
     </row>
-    <row r="186" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="8"/>
@@ -6628,7 +6641,7 @@
       <c r="X186" s="5"/>
       <c r="Y186" s="5"/>
     </row>
-    <row r="187" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="8"/>
@@ -6655,7 +6668,7 @@
       <c r="X187" s="5"/>
       <c r="Y187" s="5"/>
     </row>
-    <row r="188" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="8"/>
@@ -6682,7 +6695,7 @@
       <c r="X188" s="5"/>
       <c r="Y188" s="5"/>
     </row>
-    <row r="189" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="8"/>
@@ -6709,7 +6722,7 @@
       <c r="X189" s="5"/>
       <c r="Y189" s="5"/>
     </row>
-    <row r="190" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="8"/>
@@ -6736,7 +6749,7 @@
       <c r="X190" s="5"/>
       <c r="Y190" s="5"/>
     </row>
-    <row r="191" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="8"/>
@@ -6763,7 +6776,7 @@
       <c r="X191" s="5"/>
       <c r="Y191" s="5"/>
     </row>
-    <row r="192" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="8"/>
@@ -6790,7 +6803,7 @@
       <c r="X192" s="5"/>
       <c r="Y192" s="5"/>
     </row>
-    <row r="193" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="8"/>
@@ -6817,7 +6830,7 @@
       <c r="X193" s="5"/>
       <c r="Y193" s="5"/>
     </row>
-    <row r="194" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="8"/>
@@ -6844,7 +6857,7 @@
       <c r="X194" s="5"/>
       <c r="Y194" s="5"/>
     </row>
-    <row r="195" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="8"/>
@@ -6871,7 +6884,7 @@
       <c r="X195" s="5"/>
       <c r="Y195" s="5"/>
     </row>
-    <row r="196" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="8"/>
@@ -6898,7 +6911,7 @@
       <c r="X196" s="5"/>
       <c r="Y196" s="5"/>
     </row>
-    <row r="197" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="8"/>
@@ -6925,7 +6938,7 @@
       <c r="X197" s="5"/>
       <c r="Y197" s="5"/>
     </row>
-    <row r="198" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="8"/>
@@ -6952,7 +6965,7 @@
       <c r="X198" s="5"/>
       <c r="Y198" s="5"/>
     </row>
-    <row r="199" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="8"/>
@@ -6979,7 +6992,7 @@
       <c r="X199" s="5"/>
       <c r="Y199" s="5"/>
     </row>
-    <row r="200" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="8"/>
@@ -7006,7 +7019,7 @@
       <c r="X200" s="5"/>
       <c r="Y200" s="5"/>
     </row>
-    <row r="201" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="8"/>
@@ -7033,7 +7046,7 @@
       <c r="X201" s="5"/>
       <c r="Y201" s="5"/>
     </row>
-    <row r="202" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="8"/>
@@ -7060,7 +7073,7 @@
       <c r="X202" s="5"/>
       <c r="Y202" s="5"/>
     </row>
-    <row r="203" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="8"/>
@@ -7087,7 +7100,7 @@
       <c r="X203" s="5"/>
       <c r="Y203" s="5"/>
     </row>
-    <row r="204" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="8"/>
@@ -7114,7 +7127,7 @@
       <c r="X204" s="5"/>
       <c r="Y204" s="5"/>
     </row>
-    <row r="205" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="8"/>
@@ -7141,7 +7154,7 @@
       <c r="X205" s="5"/>
       <c r="Y205" s="5"/>
     </row>
-    <row r="206" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="8"/>
@@ -7168,7 +7181,7 @@
       <c r="X206" s="5"/>
       <c r="Y206" s="5"/>
     </row>
-    <row r="207" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="8"/>
@@ -7195,7 +7208,7 @@
       <c r="X207" s="5"/>
       <c r="Y207" s="5"/>
     </row>
-    <row r="208" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="8"/>
@@ -7222,7 +7235,7 @@
       <c r="X208" s="5"/>
       <c r="Y208" s="5"/>
     </row>
-    <row r="209" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="8"/>
@@ -7249,7 +7262,7 @@
       <c r="X209" s="5"/>
       <c r="Y209" s="5"/>
     </row>
-    <row r="210" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="8"/>
@@ -7276,7 +7289,7 @@
       <c r="X210" s="5"/>
       <c r="Y210" s="5"/>
     </row>
-    <row r="211" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="8"/>
@@ -7303,7 +7316,7 @@
       <c r="X211" s="5"/>
       <c r="Y211" s="5"/>
     </row>
-    <row r="212" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="8"/>
@@ -7330,7 +7343,7 @@
       <c r="X212" s="5"/>
       <c r="Y212" s="5"/>
     </row>
-    <row r="213" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="8"/>
@@ -7357,7 +7370,7 @@
       <c r="X213" s="5"/>
       <c r="Y213" s="5"/>
     </row>
-    <row r="214" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="8"/>
@@ -7384,7 +7397,7 @@
       <c r="X214" s="5"/>
       <c r="Y214" s="5"/>
     </row>
-    <row r="215" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="8"/>
@@ -7411,7 +7424,7 @@
       <c r="X215" s="5"/>
       <c r="Y215" s="5"/>
     </row>
-    <row r="216" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="8"/>
@@ -7438,7 +7451,7 @@
       <c r="X216" s="5"/>
       <c r="Y216" s="5"/>
     </row>
-    <row r="217" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="8"/>
@@ -7465,7 +7478,7 @@
       <c r="X217" s="5"/>
       <c r="Y217" s="5"/>
     </row>
-    <row r="218" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="8"/>
@@ -7492,7 +7505,7 @@
       <c r="X218" s="5"/>
       <c r="Y218" s="5"/>
     </row>
-    <row r="219" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="8"/>
@@ -7519,7 +7532,7 @@
       <c r="X219" s="5"/>
       <c r="Y219" s="5"/>
     </row>
-    <row r="220" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="8"/>
@@ -7546,7 +7559,7 @@
       <c r="X220" s="5"/>
       <c r="Y220" s="5"/>
     </row>
-    <row r="221" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="8"/>
@@ -7573,7 +7586,7 @@
       <c r="X221" s="5"/>
       <c r="Y221" s="5"/>
     </row>
-    <row r="222" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="8"/>
@@ -7600,7 +7613,7 @@
       <c r="X222" s="5"/>
       <c r="Y222" s="5"/>
     </row>
-    <row r="223" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="8"/>
@@ -7627,7 +7640,7 @@
       <c r="X223" s="5"/>
       <c r="Y223" s="5"/>
     </row>
-    <row r="224" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="8"/>
@@ -7654,7 +7667,7 @@
       <c r="X224" s="5"/>
       <c r="Y224" s="5"/>
     </row>
-    <row r="225" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="8"/>
@@ -7681,7 +7694,7 @@
       <c r="X225" s="5"/>
       <c r="Y225" s="5"/>
     </row>
-    <row r="226" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="8"/>
@@ -7708,7 +7721,7 @@
       <c r="X226" s="5"/>
       <c r="Y226" s="5"/>
     </row>
-    <row r="227" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="8"/>
@@ -7735,7 +7748,7 @@
       <c r="X227" s="5"/>
       <c r="Y227" s="5"/>
     </row>
-    <row r="228" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="8"/>
@@ -7762,7 +7775,7 @@
       <c r="X228" s="5"/>
       <c r="Y228" s="5"/>
     </row>
-    <row r="229" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="8"/>
@@ -7789,7 +7802,7 @@
       <c r="X229" s="5"/>
       <c r="Y229" s="5"/>
     </row>
-    <row r="230" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="8"/>
@@ -7816,7 +7829,7 @@
       <c r="X230" s="5"/>
       <c r="Y230" s="5"/>
     </row>
-    <row r="231" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="8"/>
@@ -7843,7 +7856,7 @@
       <c r="X231" s="5"/>
       <c r="Y231" s="5"/>
     </row>
-    <row r="232" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="8"/>
@@ -7870,7 +7883,7 @@
       <c r="X232" s="5"/>
       <c r="Y232" s="5"/>
     </row>
-    <row r="233" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="8"/>
@@ -7897,7 +7910,7 @@
       <c r="X233" s="5"/>
       <c r="Y233" s="5"/>
     </row>
-    <row r="234" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="8"/>
@@ -7924,7 +7937,7 @@
       <c r="X234" s="5"/>
       <c r="Y234" s="5"/>
     </row>
-    <row r="235" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="8"/>
@@ -7951,7 +7964,7 @@
       <c r="X235" s="5"/>
       <c r="Y235" s="5"/>
     </row>
-    <row r="236" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="8"/>
@@ -7978,7 +7991,7 @@
       <c r="X236" s="5"/>
       <c r="Y236" s="5"/>
     </row>
-    <row r="237" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="8"/>
@@ -8005,7 +8018,7 @@
       <c r="X237" s="5"/>
       <c r="Y237" s="5"/>
     </row>
-    <row r="238" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="8"/>
@@ -8032,7 +8045,7 @@
       <c r="X238" s="5"/>
       <c r="Y238" s="5"/>
     </row>
-    <row r="239" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="8"/>
@@ -8059,7 +8072,7 @@
       <c r="X239" s="5"/>
       <c r="Y239" s="5"/>
     </row>
-    <row r="240" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="8"/>
@@ -8086,7 +8099,7 @@
       <c r="X240" s="5"/>
       <c r="Y240" s="5"/>
     </row>
-    <row r="241" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="8"/>
@@ -8113,7 +8126,7 @@
       <c r="X241" s="5"/>
       <c r="Y241" s="5"/>
     </row>
-    <row r="242" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="8"/>
@@ -8140,7 +8153,7 @@
       <c r="X242" s="5"/>
       <c r="Y242" s="5"/>
     </row>
-    <row r="243" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="8"/>
@@ -8167,7 +8180,7 @@
       <c r="X243" s="5"/>
       <c r="Y243" s="5"/>
     </row>
-    <row r="244" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="8"/>
@@ -8194,7 +8207,7 @@
       <c r="X244" s="5"/>
       <c r="Y244" s="5"/>
     </row>
-    <row r="245" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="8"/>
@@ -8221,7 +8234,7 @@
       <c r="X245" s="5"/>
       <c r="Y245" s="5"/>
     </row>
-    <row r="246" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="8"/>
@@ -8248,7 +8261,7 @@
       <c r="X246" s="5"/>
       <c r="Y246" s="5"/>
     </row>
-    <row r="247" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="8"/>
@@ -8275,7 +8288,7 @@
       <c r="X247" s="5"/>
       <c r="Y247" s="5"/>
     </row>
-    <row r="248" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="8"/>
@@ -8302,7 +8315,7 @@
       <c r="X248" s="5"/>
       <c r="Y248" s="5"/>
     </row>
-    <row r="249" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="8"/>
@@ -8329,7 +8342,7 @@
       <c r="X249" s="5"/>
       <c r="Y249" s="5"/>
     </row>
-    <row r="250" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="8"/>
@@ -8356,7 +8369,7 @@
       <c r="X250" s="5"/>
       <c r="Y250" s="5"/>
     </row>
-    <row r="251" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="8"/>
@@ -8383,7 +8396,7 @@
       <c r="X251" s="5"/>
       <c r="Y251" s="5"/>
     </row>
-    <row r="252" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="8"/>
@@ -8410,7 +8423,7 @@
       <c r="X252" s="5"/>
       <c r="Y252" s="5"/>
     </row>
-    <row r="253" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="8"/>
@@ -8437,7 +8450,7 @@
       <c r="X253" s="5"/>
       <c r="Y253" s="5"/>
     </row>
-    <row r="254" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="8"/>
@@ -8464,7 +8477,7 @@
       <c r="X254" s="5"/>
       <c r="Y254" s="5"/>
     </row>
-    <row r="255" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="8"/>
@@ -8491,7 +8504,7 @@
       <c r="X255" s="5"/>
       <c r="Y255" s="5"/>
     </row>
-    <row r="256" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="8"/>
@@ -8518,7 +8531,7 @@
       <c r="X256" s="5"/>
       <c r="Y256" s="5"/>
     </row>
-    <row r="257" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="8"/>
@@ -8545,7 +8558,7 @@
       <c r="X257" s="5"/>
       <c r="Y257" s="5"/>
     </row>
-    <row r="258" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="8"/>
@@ -8572,7 +8585,7 @@
       <c r="X258" s="5"/>
       <c r="Y258" s="5"/>
     </row>
-    <row r="259" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="8"/>
@@ -8599,7 +8612,7 @@
       <c r="X259" s="5"/>
       <c r="Y259" s="5"/>
     </row>
-    <row r="260" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="8"/>
@@ -8626,7 +8639,7 @@
       <c r="X260" s="5"/>
       <c r="Y260" s="5"/>
     </row>
-    <row r="261" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="8"/>
@@ -8653,7 +8666,7 @@
       <c r="X261" s="5"/>
       <c r="Y261" s="5"/>
     </row>
-    <row r="262" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="8"/>
@@ -8680,7 +8693,7 @@
       <c r="X262" s="5"/>
       <c r="Y262" s="5"/>
     </row>
-    <row r="263" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="8"/>
@@ -8707,7 +8720,7 @@
       <c r="X263" s="5"/>
       <c r="Y263" s="5"/>
     </row>
-    <row r="264" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="8"/>
@@ -8734,7 +8747,7 @@
       <c r="X264" s="5"/>
       <c r="Y264" s="5"/>
     </row>
-    <row r="265" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="8"/>
@@ -8761,7 +8774,7 @@
       <c r="X265" s="5"/>
       <c r="Y265" s="5"/>
     </row>
-    <row r="266" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="8"/>
@@ -8788,7 +8801,7 @@
       <c r="X266" s="5"/>
       <c r="Y266" s="5"/>
     </row>
-    <row r="267" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="8"/>
@@ -8815,7 +8828,7 @@
       <c r="X267" s="5"/>
       <c r="Y267" s="5"/>
     </row>
-    <row r="268" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="8"/>
@@ -8842,7 +8855,7 @@
       <c r="X268" s="5"/>
       <c r="Y268" s="5"/>
     </row>
-    <row r="269" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="8"/>
@@ -8869,7 +8882,7 @@
       <c r="X269" s="5"/>
       <c r="Y269" s="5"/>
     </row>
-    <row r="270" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="8"/>
@@ -8896,7 +8909,7 @@
       <c r="X270" s="5"/>
       <c r="Y270" s="5"/>
     </row>
-    <row r="271" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="8"/>
@@ -8923,7 +8936,7 @@
       <c r="X271" s="5"/>
       <c r="Y271" s="5"/>
     </row>
-    <row r="272" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="8"/>
@@ -8950,7 +8963,7 @@
       <c r="X272" s="5"/>
       <c r="Y272" s="5"/>
     </row>
-    <row r="273" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="8"/>
@@ -8977,7 +8990,7 @@
       <c r="X273" s="5"/>
       <c r="Y273" s="5"/>
     </row>
-    <row r="274" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="8"/>
@@ -9004,7 +9017,7 @@
       <c r="X274" s="5"/>
       <c r="Y274" s="5"/>
     </row>
-    <row r="275" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="8"/>
@@ -9031,7 +9044,7 @@
       <c r="X275" s="5"/>
       <c r="Y275" s="5"/>
     </row>
-    <row r="276" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="8"/>
@@ -9058,7 +9071,7 @@
       <c r="X276" s="5"/>
       <c r="Y276" s="5"/>
     </row>
-    <row r="277" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="8"/>
@@ -9085,7 +9098,7 @@
       <c r="X277" s="5"/>
       <c r="Y277" s="5"/>
     </row>
-    <row r="278" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="8"/>
@@ -9112,7 +9125,7 @@
       <c r="X278" s="5"/>
       <c r="Y278" s="5"/>
     </row>
-    <row r="279" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="8"/>
@@ -9139,7 +9152,7 @@
       <c r="X279" s="5"/>
       <c r="Y279" s="5"/>
     </row>
-    <row r="280" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="8"/>
@@ -9166,7 +9179,7 @@
       <c r="X280" s="5"/>
       <c r="Y280" s="5"/>
     </row>
-    <row r="281" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="8"/>
@@ -9193,7 +9206,7 @@
       <c r="X281" s="5"/>
       <c r="Y281" s="5"/>
     </row>
-    <row r="282" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="8"/>
@@ -9220,7 +9233,7 @@
       <c r="X282" s="5"/>
       <c r="Y282" s="5"/>
     </row>
-    <row r="283" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="8"/>
@@ -9247,7 +9260,7 @@
       <c r="X283" s="5"/>
       <c r="Y283" s="5"/>
     </row>
-    <row r="284" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="8"/>
@@ -9274,7 +9287,7 @@
       <c r="X284" s="5"/>
       <c r="Y284" s="5"/>
     </row>
-    <row r="285" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="8"/>
@@ -9301,7 +9314,7 @@
       <c r="X285" s="5"/>
       <c r="Y285" s="5"/>
     </row>
-    <row r="286" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="8"/>
@@ -9328,7 +9341,7 @@
       <c r="X286" s="5"/>
       <c r="Y286" s="5"/>
     </row>
-    <row r="287" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="8"/>
@@ -9355,7 +9368,7 @@
       <c r="X287" s="5"/>
       <c r="Y287" s="5"/>
     </row>
-    <row r="288" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="8"/>
@@ -9382,7 +9395,7 @@
       <c r="X288" s="5"/>
       <c r="Y288" s="5"/>
     </row>
-    <row r="289" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="8"/>
@@ -9409,7 +9422,7 @@
       <c r="X289" s="5"/>
       <c r="Y289" s="5"/>
     </row>
-    <row r="290" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="8"/>
@@ -9436,7 +9449,7 @@
       <c r="X290" s="5"/>
       <c r="Y290" s="5"/>
     </row>
-    <row r="291" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="8"/>
@@ -9463,7 +9476,7 @@
       <c r="X291" s="5"/>
       <c r="Y291" s="5"/>
     </row>
-    <row r="292" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="8"/>
@@ -9490,7 +9503,7 @@
       <c r="X292" s="5"/>
       <c r="Y292" s="5"/>
     </row>
-    <row r="293" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="8"/>
@@ -9517,7 +9530,7 @@
       <c r="X293" s="5"/>
       <c r="Y293" s="5"/>
     </row>
-    <row r="294" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="8"/>
@@ -9544,7 +9557,7 @@
       <c r="X294" s="5"/>
       <c r="Y294" s="5"/>
     </row>
-    <row r="295" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="8"/>
@@ -9571,7 +9584,7 @@
       <c r="X295" s="5"/>
       <c r="Y295" s="5"/>
     </row>
-    <row r="296" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="8"/>
@@ -9598,7 +9611,7 @@
       <c r="X296" s="5"/>
       <c r="Y296" s="5"/>
     </row>
-    <row r="297" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="8"/>
@@ -9625,7 +9638,7 @@
       <c r="X297" s="5"/>
       <c r="Y297" s="5"/>
     </row>
-    <row r="298" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="8"/>
@@ -9652,7 +9665,7 @@
       <c r="X298" s="5"/>
       <c r="Y298" s="5"/>
     </row>
-    <row r="299" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="8"/>
@@ -9679,7 +9692,7 @@
       <c r="X299" s="5"/>
       <c r="Y299" s="5"/>
     </row>
-    <row r="300" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="8"/>
@@ -9706,7 +9719,7 @@
       <c r="X300" s="5"/>
       <c r="Y300" s="5"/>
     </row>
-    <row r="301" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="8"/>
@@ -9733,7 +9746,7 @@
       <c r="X301" s="5"/>
       <c r="Y301" s="5"/>
     </row>
-    <row r="302" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="8"/>
@@ -9760,7 +9773,7 @@
       <c r="X302" s="5"/>
       <c r="Y302" s="5"/>
     </row>
-    <row r="303" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="8"/>
@@ -9787,7 +9800,7 @@
       <c r="X303" s="5"/>
       <c r="Y303" s="5"/>
     </row>
-    <row r="304" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="8"/>
@@ -9814,7 +9827,7 @@
       <c r="X304" s="5"/>
       <c r="Y304" s="5"/>
     </row>
-    <row r="305" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="8"/>
@@ -9841,7 +9854,7 @@
       <c r="X305" s="5"/>
       <c r="Y305" s="5"/>
     </row>
-    <row r="306" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="8"/>
@@ -9868,7 +9881,7 @@
       <c r="X306" s="5"/>
       <c r="Y306" s="5"/>
     </row>
-    <row r="307" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="8"/>
@@ -9895,7 +9908,7 @@
       <c r="X307" s="5"/>
       <c r="Y307" s="5"/>
     </row>
-    <row r="308" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="8"/>
@@ -9922,7 +9935,7 @@
       <c r="X308" s="5"/>
       <c r="Y308" s="5"/>
     </row>
-    <row r="309" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="8"/>
@@ -9949,7 +9962,7 @@
       <c r="X309" s="5"/>
       <c r="Y309" s="5"/>
     </row>
-    <row r="310" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="8"/>
@@ -9976,7 +9989,7 @@
       <c r="X310" s="5"/>
       <c r="Y310" s="5"/>
     </row>
-    <row r="311" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="8"/>
@@ -10003,7 +10016,7 @@
       <c r="X311" s="5"/>
       <c r="Y311" s="5"/>
     </row>
-    <row r="312" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="8"/>
@@ -10030,7 +10043,7 @@
       <c r="X312" s="5"/>
       <c r="Y312" s="5"/>
     </row>
-    <row r="313" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="8"/>
@@ -10057,7 +10070,7 @@
       <c r="X313" s="5"/>
       <c r="Y313" s="5"/>
     </row>
-    <row r="314" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="8"/>
@@ -10084,7 +10097,7 @@
       <c r="X314" s="5"/>
       <c r="Y314" s="5"/>
     </row>
-    <row r="315" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="8"/>
@@ -10111,7 +10124,7 @@
       <c r="X315" s="5"/>
       <c r="Y315" s="5"/>
     </row>
-    <row r="316" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="8"/>
@@ -10138,7 +10151,7 @@
       <c r="X316" s="5"/>
       <c r="Y316" s="5"/>
     </row>
-    <row r="317" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="8"/>
@@ -10165,7 +10178,7 @@
       <c r="X317" s="5"/>
       <c r="Y317" s="5"/>
     </row>
-    <row r="318" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="8"/>
@@ -10192,7 +10205,7 @@
       <c r="X318" s="5"/>
       <c r="Y318" s="5"/>
     </row>
-    <row r="319" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="8"/>
@@ -10219,7 +10232,7 @@
       <c r="X319" s="5"/>
       <c r="Y319" s="5"/>
     </row>
-    <row r="320" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="8"/>
@@ -10246,7 +10259,7 @@
       <c r="X320" s="5"/>
       <c r="Y320" s="5"/>
     </row>
-    <row r="321" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="8"/>
@@ -10273,7 +10286,7 @@
       <c r="X321" s="5"/>
       <c r="Y321" s="5"/>
     </row>
-    <row r="322" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="8"/>
@@ -10300,7 +10313,7 @@
       <c r="X322" s="5"/>
       <c r="Y322" s="5"/>
     </row>
-    <row r="323" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="8"/>
@@ -10327,7 +10340,7 @@
       <c r="X323" s="5"/>
       <c r="Y323" s="5"/>
     </row>
-    <row r="324" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="8"/>
@@ -10354,7 +10367,7 @@
       <c r="X324" s="5"/>
       <c r="Y324" s="5"/>
     </row>
-    <row r="325" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="8"/>
@@ -10381,7 +10394,7 @@
       <c r="X325" s="5"/>
       <c r="Y325" s="5"/>
     </row>
-    <row r="326" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="8"/>
@@ -10408,7 +10421,7 @@
       <c r="X326" s="5"/>
       <c r="Y326" s="5"/>
     </row>
-    <row r="327" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="8"/>
@@ -10435,7 +10448,7 @@
       <c r="X327" s="5"/>
       <c r="Y327" s="5"/>
     </row>
-    <row r="328" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="8"/>
@@ -10462,7 +10475,7 @@
       <c r="X328" s="5"/>
       <c r="Y328" s="5"/>
     </row>
-    <row r="329" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="8"/>
@@ -10489,7 +10502,7 @@
       <c r="X329" s="5"/>
       <c r="Y329" s="5"/>
     </row>
-    <row r="330" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="8"/>
@@ -10516,7 +10529,7 @@
       <c r="X330" s="5"/>
       <c r="Y330" s="5"/>
     </row>
-    <row r="331" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="8"/>
@@ -10543,7 +10556,7 @@
       <c r="X331" s="5"/>
       <c r="Y331" s="5"/>
     </row>
-    <row r="332" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="8"/>
@@ -10570,7 +10583,7 @@
       <c r="X332" s="5"/>
       <c r="Y332" s="5"/>
     </row>
-    <row r="333" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="8"/>
@@ -10597,7 +10610,7 @@
       <c r="X333" s="5"/>
       <c r="Y333" s="5"/>
     </row>
-    <row r="334" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="8"/>
@@ -10624,7 +10637,7 @@
       <c r="X334" s="5"/>
       <c r="Y334" s="5"/>
     </row>
-    <row r="335" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="8"/>
@@ -10651,7 +10664,7 @@
       <c r="X335" s="5"/>
       <c r="Y335" s="5"/>
     </row>
-    <row r="336" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="8"/>
@@ -10678,7 +10691,7 @@
       <c r="X336" s="5"/>
       <c r="Y336" s="5"/>
     </row>
-    <row r="337" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="8"/>
@@ -10705,7 +10718,7 @@
       <c r="X337" s="5"/>
       <c r="Y337" s="5"/>
     </row>
-    <row r="338" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="8"/>
@@ -10732,7 +10745,7 @@
       <c r="X338" s="5"/>
       <c r="Y338" s="5"/>
     </row>
-    <row r="339" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="8"/>
@@ -10759,7 +10772,7 @@
       <c r="X339" s="5"/>
       <c r="Y339" s="5"/>
     </row>
-    <row r="340" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="8"/>
@@ -10786,7 +10799,7 @@
       <c r="X340" s="5"/>
       <c r="Y340" s="5"/>
     </row>
-    <row r="341" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="8"/>
@@ -10813,7 +10826,7 @@
       <c r="X341" s="5"/>
       <c r="Y341" s="5"/>
     </row>
-    <row r="342" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="8"/>
@@ -10840,7 +10853,7 @@
       <c r="X342" s="5"/>
       <c r="Y342" s="5"/>
     </row>
-    <row r="343" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="8"/>
@@ -10867,7 +10880,7 @@
       <c r="X343" s="5"/>
       <c r="Y343" s="5"/>
     </row>
-    <row r="344" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="8"/>
@@ -10894,7 +10907,7 @@
       <c r="X344" s="5"/>
       <c r="Y344" s="5"/>
     </row>
-    <row r="345" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="8"/>
@@ -10921,7 +10934,7 @@
       <c r="X345" s="5"/>
       <c r="Y345" s="5"/>
     </row>
-    <row r="346" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="8"/>
@@ -10948,7 +10961,7 @@
       <c r="X346" s="5"/>
       <c r="Y346" s="5"/>
     </row>
-    <row r="347" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="8"/>
@@ -10975,7 +10988,7 @@
       <c r="X347" s="5"/>
       <c r="Y347" s="5"/>
     </row>
-    <row r="348" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="8"/>
@@ -11002,7 +11015,7 @@
       <c r="X348" s="5"/>
       <c r="Y348" s="5"/>
     </row>
-    <row r="349" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="8"/>
@@ -11029,7 +11042,7 @@
       <c r="X349" s="5"/>
       <c r="Y349" s="5"/>
     </row>
-    <row r="350" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="8"/>
@@ -11056,7 +11069,7 @@
       <c r="X350" s="5"/>
       <c r="Y350" s="5"/>
     </row>
-    <row r="351" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="8"/>
@@ -11083,7 +11096,7 @@
       <c r="X351" s="5"/>
       <c r="Y351" s="5"/>
     </row>
-    <row r="352" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="8"/>
@@ -11110,7 +11123,7 @@
       <c r="X352" s="5"/>
       <c r="Y352" s="5"/>
     </row>
-    <row r="353" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="8"/>
@@ -11137,7 +11150,7 @@
       <c r="X353" s="5"/>
       <c r="Y353" s="5"/>
     </row>
-    <row r="354" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="8"/>
@@ -11164,7 +11177,7 @@
       <c r="X354" s="5"/>
       <c r="Y354" s="5"/>
     </row>
-    <row r="355" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="8"/>
@@ -11191,7 +11204,7 @@
       <c r="X355" s="5"/>
       <c r="Y355" s="5"/>
     </row>
-    <row r="356" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="8"/>
@@ -11218,7 +11231,7 @@
       <c r="X356" s="5"/>
       <c r="Y356" s="5"/>
     </row>
-    <row r="357" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="8"/>
@@ -11245,7 +11258,7 @@
       <c r="X357" s="5"/>
       <c r="Y357" s="5"/>
     </row>
-    <row r="358" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="8"/>
@@ -11272,7 +11285,7 @@
       <c r="X358" s="5"/>
       <c r="Y358" s="5"/>
     </row>
-    <row r="359" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="8"/>
@@ -11299,7 +11312,7 @@
       <c r="X359" s="5"/>
       <c r="Y359" s="5"/>
     </row>
-    <row r="360" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="8"/>
@@ -11326,7 +11339,7 @@
       <c r="X360" s="5"/>
       <c r="Y360" s="5"/>
     </row>
-    <row r="361" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="8"/>
@@ -11353,7 +11366,7 @@
       <c r="X361" s="5"/>
       <c r="Y361" s="5"/>
     </row>
-    <row r="362" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="8"/>
@@ -11380,7 +11393,7 @@
       <c r="X362" s="5"/>
       <c r="Y362" s="5"/>
     </row>
-    <row r="363" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="8"/>
@@ -11407,7 +11420,7 @@
       <c r="X363" s="5"/>
       <c r="Y363" s="5"/>
     </row>
-    <row r="364" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="8"/>
@@ -11434,7 +11447,7 @@
       <c r="X364" s="5"/>
       <c r="Y364" s="5"/>
     </row>
-    <row r="365" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="8"/>
@@ -11461,7 +11474,7 @@
       <c r="X365" s="5"/>
       <c r="Y365" s="5"/>
     </row>
-    <row r="366" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="8"/>
@@ -11488,7 +11501,7 @@
       <c r="X366" s="5"/>
       <c r="Y366" s="5"/>
     </row>
-    <row r="367" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="8"/>
@@ -11515,7 +11528,7 @@
       <c r="X367" s="5"/>
       <c r="Y367" s="5"/>
     </row>
-    <row r="368" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="8"/>
@@ -11542,7 +11555,7 @@
       <c r="X368" s="5"/>
       <c r="Y368" s="5"/>
     </row>
-    <row r="369" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="8"/>
@@ -11569,7 +11582,7 @@
       <c r="X369" s="5"/>
       <c r="Y369" s="5"/>
     </row>
-    <row r="370" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="8"/>
@@ -11596,7 +11609,7 @@
       <c r="X370" s="5"/>
       <c r="Y370" s="5"/>
     </row>
-    <row r="371" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="8"/>
@@ -11623,7 +11636,7 @@
       <c r="X371" s="5"/>
       <c r="Y371" s="5"/>
     </row>
-    <row r="372" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="8"/>
@@ -11650,7 +11663,7 @@
       <c r="X372" s="5"/>
       <c r="Y372" s="5"/>
     </row>
-    <row r="373" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="8"/>
@@ -11677,7 +11690,7 @@
       <c r="X373" s="5"/>
       <c r="Y373" s="5"/>
     </row>
-    <row r="374" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="8"/>
@@ -11704,7 +11717,7 @@
       <c r="X374" s="5"/>
       <c r="Y374" s="5"/>
     </row>
-    <row r="375" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="8"/>
@@ -11731,7 +11744,7 @@
       <c r="X375" s="5"/>
       <c r="Y375" s="5"/>
     </row>
-    <row r="376" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="8"/>
@@ -11758,7 +11771,7 @@
       <c r="X376" s="5"/>
       <c r="Y376" s="5"/>
     </row>
-    <row r="377" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="8"/>
@@ -11785,7 +11798,7 @@
       <c r="X377" s="5"/>
       <c r="Y377" s="5"/>
     </row>
-    <row r="378" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="8"/>
@@ -11812,7 +11825,7 @@
       <c r="X378" s="5"/>
       <c r="Y378" s="5"/>
     </row>
-    <row r="379" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="8"/>
@@ -11839,7 +11852,7 @@
       <c r="X379" s="5"/>
       <c r="Y379" s="5"/>
     </row>
-    <row r="380" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="8"/>
@@ -11866,7 +11879,7 @@
       <c r="X380" s="5"/>
       <c r="Y380" s="5"/>
     </row>
-    <row r="381" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="8"/>
@@ -11893,7 +11906,7 @@
       <c r="X381" s="5"/>
       <c r="Y381" s="5"/>
     </row>
-    <row r="382" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="8"/>
@@ -11920,7 +11933,7 @@
       <c r="X382" s="5"/>
       <c r="Y382" s="5"/>
     </row>
-    <row r="383" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="8"/>
@@ -11947,7 +11960,7 @@
       <c r="X383" s="5"/>
       <c r="Y383" s="5"/>
     </row>
-    <row r="384" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="8"/>
@@ -11974,7 +11987,7 @@
       <c r="X384" s="5"/>
       <c r="Y384" s="5"/>
     </row>
-    <row r="385" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="8"/>
@@ -12001,7 +12014,7 @@
       <c r="X385" s="5"/>
       <c r="Y385" s="5"/>
     </row>
-    <row r="386" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="8"/>
@@ -12028,7 +12041,7 @@
       <c r="X386" s="5"/>
       <c r="Y386" s="5"/>
     </row>
-    <row r="387" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="8"/>
@@ -12055,7 +12068,7 @@
       <c r="X387" s="5"/>
       <c r="Y387" s="5"/>
     </row>
-    <row r="388" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="8"/>
@@ -12082,7 +12095,7 @@
       <c r="X388" s="5"/>
       <c r="Y388" s="5"/>
     </row>
-    <row r="389" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="8"/>
@@ -12109,7 +12122,7 @@
       <c r="X389" s="5"/>
       <c r="Y389" s="5"/>
     </row>
-    <row r="390" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="8"/>
@@ -12136,7 +12149,7 @@
       <c r="X390" s="5"/>
       <c r="Y390" s="5"/>
     </row>
-    <row r="391" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="8"/>
@@ -12163,7 +12176,7 @@
       <c r="X391" s="5"/>
       <c r="Y391" s="5"/>
     </row>
-    <row r="392" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="8"/>
@@ -12190,7 +12203,7 @@
       <c r="X392" s="5"/>
       <c r="Y392" s="5"/>
     </row>
-    <row r="393" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="8"/>
@@ -12217,7 +12230,7 @@
       <c r="X393" s="5"/>
       <c r="Y393" s="5"/>
     </row>
-    <row r="394" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="8"/>
@@ -12244,7 +12257,7 @@
       <c r="X394" s="5"/>
       <c r="Y394" s="5"/>
     </row>
-    <row r="395" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="8"/>
@@ -12271,7 +12284,7 @@
       <c r="X395" s="5"/>
       <c r="Y395" s="5"/>
     </row>
-    <row r="396" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="8"/>
@@ -12298,7 +12311,7 @@
       <c r="X396" s="5"/>
       <c r="Y396" s="5"/>
     </row>
-    <row r="397" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="8"/>
@@ -12325,7 +12338,7 @@
       <c r="X397" s="5"/>
       <c r="Y397" s="5"/>
     </row>
-    <row r="398" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="8"/>
@@ -12352,7 +12365,7 @@
       <c r="X398" s="5"/>
       <c r="Y398" s="5"/>
     </row>
-    <row r="399" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="8"/>
@@ -12379,7 +12392,7 @@
       <c r="X399" s="5"/>
       <c r="Y399" s="5"/>
     </row>
-    <row r="400" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="8"/>
@@ -12406,7 +12419,7 @@
       <c r="X400" s="5"/>
       <c r="Y400" s="5"/>
     </row>
-    <row r="401" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="8"/>
@@ -12433,7 +12446,7 @@
       <c r="X401" s="5"/>
       <c r="Y401" s="5"/>
     </row>
-    <row r="402" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="8"/>
@@ -12460,7 +12473,7 @@
       <c r="X402" s="5"/>
       <c r="Y402" s="5"/>
     </row>
-    <row r="403" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="8"/>
@@ -12487,7 +12500,7 @@
       <c r="X403" s="5"/>
       <c r="Y403" s="5"/>
     </row>
-    <row r="404" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="8"/>
@@ -12514,7 +12527,7 @@
       <c r="X404" s="5"/>
       <c r="Y404" s="5"/>
     </row>
-    <row r="405" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="8"/>
@@ -12541,7 +12554,7 @@
       <c r="X405" s="5"/>
       <c r="Y405" s="5"/>
     </row>
-    <row r="406" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="8"/>
@@ -12568,7 +12581,7 @@
       <c r="X406" s="5"/>
       <c r="Y406" s="5"/>
     </row>
-    <row r="407" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="8"/>
@@ -12595,7 +12608,7 @@
       <c r="X407" s="5"/>
       <c r="Y407" s="5"/>
     </row>
-    <row r="408" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="8"/>
@@ -12622,7 +12635,7 @@
       <c r="X408" s="5"/>
       <c r="Y408" s="5"/>
     </row>
-    <row r="409" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="8"/>
@@ -12649,7 +12662,7 @@
       <c r="X409" s="5"/>
       <c r="Y409" s="5"/>
     </row>
-    <row r="410" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="8"/>
@@ -12676,7 +12689,7 @@
       <c r="X410" s="5"/>
       <c r="Y410" s="5"/>
     </row>
-    <row r="411" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="8"/>
@@ -12703,7 +12716,7 @@
       <c r="X411" s="5"/>
       <c r="Y411" s="5"/>
     </row>
-    <row r="412" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="8"/>
@@ -12730,7 +12743,7 @@
       <c r="X412" s="5"/>
       <c r="Y412" s="5"/>
     </row>
-    <row r="413" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="8"/>
@@ -12757,7 +12770,7 @@
       <c r="X413" s="5"/>
       <c r="Y413" s="5"/>
     </row>
-    <row r="414" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="8"/>
@@ -12784,7 +12797,7 @@
       <c r="X414" s="5"/>
       <c r="Y414" s="5"/>
     </row>
-    <row r="415" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="8"/>
@@ -12811,7 +12824,7 @@
       <c r="X415" s="5"/>
       <c r="Y415" s="5"/>
     </row>
-    <row r="416" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="8"/>
@@ -12838,7 +12851,7 @@
       <c r="X416" s="5"/>
       <c r="Y416" s="5"/>
     </row>
-    <row r="417" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="8"/>
@@ -12865,7 +12878,7 @@
       <c r="X417" s="5"/>
       <c r="Y417" s="5"/>
     </row>
-    <row r="418" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="8"/>
@@ -12892,7 +12905,7 @@
       <c r="X418" s="5"/>
       <c r="Y418" s="5"/>
     </row>
-    <row r="419" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="8"/>
@@ -12919,7 +12932,7 @@
       <c r="X419" s="5"/>
       <c r="Y419" s="5"/>
     </row>
-    <row r="420" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="8"/>
@@ -12946,7 +12959,7 @@
       <c r="X420" s="5"/>
       <c r="Y420" s="5"/>
     </row>
-    <row r="421" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="8"/>
@@ -12973,7 +12986,7 @@
       <c r="X421" s="5"/>
       <c r="Y421" s="5"/>
     </row>
-    <row r="422" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="8"/>
@@ -13000,7 +13013,7 @@
       <c r="X422" s="5"/>
       <c r="Y422" s="5"/>
     </row>
-    <row r="423" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="8"/>
@@ -13027,7 +13040,7 @@
       <c r="X423" s="5"/>
       <c r="Y423" s="5"/>
     </row>
-    <row r="424" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="8"/>
@@ -13054,7 +13067,7 @@
       <c r="X424" s="5"/>
       <c r="Y424" s="5"/>
     </row>
-    <row r="425" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="8"/>
@@ -13081,7 +13094,7 @@
       <c r="X425" s="5"/>
       <c r="Y425" s="5"/>
     </row>
-    <row r="426" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="8"/>
@@ -13108,7 +13121,7 @@
       <c r="X426" s="5"/>
       <c r="Y426" s="5"/>
     </row>
-    <row r="427" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="8"/>
@@ -13135,7 +13148,7 @@
       <c r="X427" s="5"/>
       <c r="Y427" s="5"/>
     </row>
-    <row r="428" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="8"/>
@@ -13162,7 +13175,7 @@
       <c r="X428" s="5"/>
       <c r="Y428" s="5"/>
     </row>
-    <row r="429" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="8"/>
@@ -13189,7 +13202,7 @@
       <c r="X429" s="5"/>
       <c r="Y429" s="5"/>
     </row>
-    <row r="430" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="8"/>
@@ -13216,7 +13229,7 @@
       <c r="X430" s="5"/>
       <c r="Y430" s="5"/>
     </row>
-    <row r="431" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="8"/>
@@ -13243,7 +13256,7 @@
       <c r="X431" s="5"/>
       <c r="Y431" s="5"/>
     </row>
-    <row r="432" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="8"/>
@@ -13270,7 +13283,7 @@
       <c r="X432" s="5"/>
       <c r="Y432" s="5"/>
     </row>
-    <row r="433" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="5"/>
       <c r="B433" s="5"/>
       <c r="C433" s="8"/>
@@ -13297,7 +13310,7 @@
       <c r="X433" s="5"/>
       <c r="Y433" s="5"/>
     </row>
-    <row r="434" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="8"/>
@@ -13324,7 +13337,7 @@
       <c r="X434" s="5"/>
       <c r="Y434" s="5"/>
     </row>
-    <row r="435" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="8"/>
@@ -13351,7 +13364,7 @@
       <c r="X435" s="5"/>
       <c r="Y435" s="5"/>
     </row>
-    <row r="436" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="8"/>
@@ -13378,7 +13391,7 @@
       <c r="X436" s="5"/>
       <c r="Y436" s="5"/>
     </row>
-    <row r="437" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="8"/>
@@ -13405,7 +13418,7 @@
       <c r="X437" s="5"/>
       <c r="Y437" s="5"/>
     </row>
-    <row r="438" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="8"/>
@@ -13432,7 +13445,7 @@
       <c r="X438" s="5"/>
       <c r="Y438" s="5"/>
     </row>
-    <row r="439" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="8"/>
@@ -13459,7 +13472,7 @@
       <c r="X439" s="5"/>
       <c r="Y439" s="5"/>
     </row>
-    <row r="440" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="8"/>
@@ -13486,7 +13499,7 @@
       <c r="X440" s="5"/>
       <c r="Y440" s="5"/>
     </row>
-    <row r="441" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="8"/>
@@ -13513,7 +13526,7 @@
       <c r="X441" s="5"/>
       <c r="Y441" s="5"/>
     </row>
-    <row r="442" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="8"/>
@@ -13540,7 +13553,7 @@
       <c r="X442" s="5"/>
       <c r="Y442" s="5"/>
     </row>
-    <row r="443" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="8"/>
@@ -13567,7 +13580,7 @@
       <c r="X443" s="5"/>
       <c r="Y443" s="5"/>
     </row>
-    <row r="444" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="8"/>
@@ -13594,7 +13607,7 @@
       <c r="X444" s="5"/>
       <c r="Y444" s="5"/>
     </row>
-    <row r="445" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
       <c r="C445" s="8"/>
@@ -13621,7 +13634,7 @@
       <c r="X445" s="5"/>
       <c r="Y445" s="5"/>
     </row>
-    <row r="446" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
       <c r="C446" s="8"/>
@@ -13648,7 +13661,7 @@
       <c r="X446" s="5"/>
       <c r="Y446" s="5"/>
     </row>
-    <row r="447" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
       <c r="C447" s="8"/>
@@ -13675,7 +13688,7 @@
       <c r="X447" s="5"/>
       <c r="Y447" s="5"/>
     </row>
-    <row r="448" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="5"/>
       <c r="B448" s="5"/>
       <c r="C448" s="8"/>
@@ -13702,7 +13715,7 @@
       <c r="X448" s="5"/>
       <c r="Y448" s="5"/>
     </row>
-    <row r="449" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="5"/>
       <c r="B449" s="5"/>
       <c r="C449" s="8"/>
@@ -13729,7 +13742,7 @@
       <c r="X449" s="5"/>
       <c r="Y449" s="5"/>
     </row>
-    <row r="450" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="5"/>
       <c r="B450" s="5"/>
       <c r="C450" s="8"/>
@@ -13756,7 +13769,7 @@
       <c r="X450" s="5"/>
       <c r="Y450" s="5"/>
     </row>
-    <row r="451" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="5"/>
       <c r="B451" s="5"/>
       <c r="C451" s="8"/>
@@ -13783,7 +13796,7 @@
       <c r="X451" s="5"/>
       <c r="Y451" s="5"/>
     </row>
-    <row r="452" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="5"/>
       <c r="B452" s="5"/>
       <c r="C452" s="8"/>
@@ -13810,7 +13823,7 @@
       <c r="X452" s="5"/>
       <c r="Y452" s="5"/>
     </row>
-    <row r="453" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="5"/>
       <c r="B453" s="5"/>
       <c r="C453" s="8"/>
@@ -13837,7 +13850,7 @@
       <c r="X453" s="5"/>
       <c r="Y453" s="5"/>
     </row>
-    <row r="454" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="8"/>
@@ -13864,7 +13877,7 @@
       <c r="X454" s="5"/>
       <c r="Y454" s="5"/>
     </row>
-    <row r="455" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="5"/>
       <c r="B455" s="5"/>
       <c r="C455" s="8"/>
@@ -13891,7 +13904,7 @@
       <c r="X455" s="5"/>
       <c r="Y455" s="5"/>
     </row>
-    <row r="456" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="5"/>
       <c r="B456" s="5"/>
       <c r="C456" s="8"/>
@@ -13918,7 +13931,7 @@
       <c r="X456" s="5"/>
       <c r="Y456" s="5"/>
     </row>
-    <row r="457" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="5"/>
       <c r="B457" s="5"/>
       <c r="C457" s="8"/>
@@ -13945,7 +13958,7 @@
       <c r="X457" s="5"/>
       <c r="Y457" s="5"/>
     </row>
-    <row r="458" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="5"/>
       <c r="B458" s="5"/>
       <c r="C458" s="8"/>
@@ -13972,7 +13985,7 @@
       <c r="X458" s="5"/>
       <c r="Y458" s="5"/>
     </row>
-    <row r="459" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="5"/>
       <c r="B459" s="5"/>
       <c r="C459" s="8"/>
@@ -13999,7 +14012,7 @@
       <c r="X459" s="5"/>
       <c r="Y459" s="5"/>
     </row>
-    <row r="460" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="5"/>
       <c r="B460" s="5"/>
       <c r="C460" s="8"/>
@@ -14026,7 +14039,7 @@
       <c r="X460" s="5"/>
       <c r="Y460" s="5"/>
     </row>
-    <row r="461" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="5"/>
       <c r="B461" s="5"/>
       <c r="C461" s="8"/>
@@ -14053,7 +14066,7 @@
       <c r="X461" s="5"/>
       <c r="Y461" s="5"/>
     </row>
-    <row r="462" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="5"/>
       <c r="B462" s="5"/>
       <c r="C462" s="8"/>
@@ -14080,7 +14093,7 @@
       <c r="X462" s="5"/>
       <c r="Y462" s="5"/>
     </row>
-    <row r="463" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="5"/>
       <c r="B463" s="5"/>
       <c r="C463" s="8"/>
@@ -14107,7 +14120,7 @@
       <c r="X463" s="5"/>
       <c r="Y463" s="5"/>
     </row>
-    <row r="464" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="5"/>
       <c r="B464" s="5"/>
       <c r="C464" s="8"/>
@@ -14134,7 +14147,7 @@
       <c r="X464" s="5"/>
       <c r="Y464" s="5"/>
     </row>
-    <row r="465" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="5"/>
       <c r="B465" s="5"/>
       <c r="C465" s="8"/>
@@ -14161,7 +14174,7 @@
       <c r="X465" s="5"/>
       <c r="Y465" s="5"/>
     </row>
-    <row r="466" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="5"/>
       <c r="B466" s="5"/>
       <c r="C466" s="8"/>
@@ -14188,7 +14201,7 @@
       <c r="X466" s="5"/>
       <c r="Y466" s="5"/>
     </row>
-    <row r="467" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="5"/>
       <c r="B467" s="5"/>
       <c r="C467" s="8"/>
@@ -14215,7 +14228,7 @@
       <c r="X467" s="5"/>
       <c r="Y467" s="5"/>
     </row>
-    <row r="468" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="5"/>
       <c r="B468" s="5"/>
       <c r="C468" s="8"/>
@@ -14242,7 +14255,7 @@
       <c r="X468" s="5"/>
       <c r="Y468" s="5"/>
     </row>
-    <row r="469" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="5"/>
       <c r="B469" s="5"/>
       <c r="C469" s="8"/>
@@ -14269,7 +14282,7 @@
       <c r="X469" s="5"/>
       <c r="Y469" s="5"/>
     </row>
-    <row r="470" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="5"/>
       <c r="B470" s="5"/>
       <c r="C470" s="8"/>
@@ -14296,7 +14309,7 @@
       <c r="X470" s="5"/>
       <c r="Y470" s="5"/>
     </row>
-    <row r="471" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="5"/>
       <c r="B471" s="5"/>
       <c r="C471" s="8"/>
@@ -14323,7 +14336,7 @@
       <c r="X471" s="5"/>
       <c r="Y471" s="5"/>
     </row>
-    <row r="472" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="5"/>
       <c r="B472" s="5"/>
       <c r="C472" s="8"/>
@@ -14350,7 +14363,7 @@
       <c r="X472" s="5"/>
       <c r="Y472" s="5"/>
     </row>
-    <row r="473" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="5"/>
       <c r="B473" s="5"/>
       <c r="C473" s="8"/>
@@ -14377,7 +14390,7 @@
       <c r="X473" s="5"/>
       <c r="Y473" s="5"/>
     </row>
-    <row r="474" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="5"/>
       <c r="B474" s="5"/>
       <c r="C474" s="8"/>
@@ -14404,7 +14417,7 @@
       <c r="X474" s="5"/>
       <c r="Y474" s="5"/>
     </row>
-    <row r="475" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="5"/>
       <c r="B475" s="5"/>
       <c r="C475" s="8"/>
@@ -14431,7 +14444,7 @@
       <c r="X475" s="5"/>
       <c r="Y475" s="5"/>
     </row>
-    <row r="476" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="5"/>
       <c r="B476" s="5"/>
       <c r="C476" s="8"/>
@@ -14458,7 +14471,7 @@
       <c r="X476" s="5"/>
       <c r="Y476" s="5"/>
     </row>
-    <row r="477" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="5"/>
       <c r="B477" s="5"/>
       <c r="C477" s="8"/>
@@ -14485,7 +14498,7 @@
       <c r="X477" s="5"/>
       <c r="Y477" s="5"/>
     </row>
-    <row r="478" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="5"/>
       <c r="B478" s="5"/>
       <c r="C478" s="8"/>
@@ -14512,7 +14525,7 @@
       <c r="X478" s="5"/>
       <c r="Y478" s="5"/>
     </row>
-    <row r="479" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="5"/>
       <c r="B479" s="5"/>
       <c r="C479" s="8"/>
@@ -14539,7 +14552,7 @@
       <c r="X479" s="5"/>
       <c r="Y479" s="5"/>
     </row>
-    <row r="480" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="5"/>
       <c r="B480" s="5"/>
       <c r="C480" s="8"/>
@@ -14566,7 +14579,7 @@
       <c r="X480" s="5"/>
       <c r="Y480" s="5"/>
     </row>
-    <row r="481" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="5"/>
       <c r="B481" s="5"/>
       <c r="C481" s="8"/>
@@ -14593,7 +14606,7 @@
       <c r="X481" s="5"/>
       <c r="Y481" s="5"/>
     </row>
-    <row r="482" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="5"/>
       <c r="B482" s="5"/>
       <c r="C482" s="8"/>
@@ -14620,7 +14633,7 @@
       <c r="X482" s="5"/>
       <c r="Y482" s="5"/>
     </row>
-    <row r="483" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="5"/>
       <c r="B483" s="5"/>
       <c r="C483" s="8"/>
@@ -14647,7 +14660,7 @@
       <c r="X483" s="5"/>
       <c r="Y483" s="5"/>
     </row>
-    <row r="484" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="5"/>
       <c r="B484" s="5"/>
       <c r="C484" s="8"/>
@@ -14674,7 +14687,7 @@
       <c r="X484" s="5"/>
       <c r="Y484" s="5"/>
     </row>
-    <row r="485" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="5"/>
       <c r="B485" s="5"/>
       <c r="C485" s="8"/>
@@ -14701,7 +14714,7 @@
       <c r="X485" s="5"/>
       <c r="Y485" s="5"/>
     </row>
-    <row r="486" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="5"/>
       <c r="B486" s="5"/>
       <c r="C486" s="8"/>
@@ -14728,7 +14741,7 @@
       <c r="X486" s="5"/>
       <c r="Y486" s="5"/>
     </row>
-    <row r="487" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="5"/>
       <c r="B487" s="5"/>
       <c r="C487" s="8"/>
@@ -14755,7 +14768,7 @@
       <c r="X487" s="5"/>
       <c r="Y487" s="5"/>
     </row>
-    <row r="488" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="5"/>
       <c r="B488" s="5"/>
       <c r="C488" s="8"/>
@@ -14782,7 +14795,7 @@
       <c r="X488" s="5"/>
       <c r="Y488" s="5"/>
     </row>
-    <row r="489" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="5"/>
       <c r="B489" s="5"/>
       <c r="C489" s="8"/>
@@ -14809,7 +14822,7 @@
       <c r="X489" s="5"/>
       <c r="Y489" s="5"/>
     </row>
-    <row r="490" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="5"/>
       <c r="B490" s="5"/>
       <c r="C490" s="8"/>
@@ -14836,7 +14849,7 @@
       <c r="X490" s="5"/>
       <c r="Y490" s="5"/>
     </row>
-    <row r="491" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="5"/>
       <c r="B491" s="5"/>
       <c r="C491" s="8"/>
@@ -14863,7 +14876,7 @@
       <c r="X491" s="5"/>
       <c r="Y491" s="5"/>
     </row>
-    <row r="492" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="5"/>
       <c r="B492" s="5"/>
       <c r="C492" s="8"/>
@@ -14890,7 +14903,7 @@
       <c r="X492" s="5"/>
       <c r="Y492" s="5"/>
     </row>
-    <row r="493" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="5"/>
       <c r="B493" s="5"/>
       <c r="C493" s="8"/>
@@ -14917,7 +14930,7 @@
       <c r="X493" s="5"/>
       <c r="Y493" s="5"/>
     </row>
-    <row r="494" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="5"/>
       <c r="B494" s="5"/>
       <c r="C494" s="8"/>
@@ -14944,7 +14957,7 @@
       <c r="X494" s="5"/>
       <c r="Y494" s="5"/>
     </row>
-    <row r="495" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="5"/>
       <c r="B495" s="5"/>
       <c r="C495" s="8"/>
@@ -14971,7 +14984,7 @@
       <c r="X495" s="5"/>
       <c r="Y495" s="5"/>
     </row>
-    <row r="496" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="5"/>
       <c r="B496" s="5"/>
       <c r="C496" s="8"/>
@@ -14998,7 +15011,7 @@
       <c r="X496" s="5"/>
       <c r="Y496" s="5"/>
     </row>
-    <row r="497" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="5"/>
       <c r="B497" s="5"/>
       <c r="C497" s="8"/>
@@ -15025,7 +15038,7 @@
       <c r="X497" s="5"/>
       <c r="Y497" s="5"/>
     </row>
-    <row r="498" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="5"/>
       <c r="B498" s="5"/>
       <c r="C498" s="8"/>
@@ -15052,7 +15065,7 @@
       <c r="X498" s="5"/>
       <c r="Y498" s="5"/>
     </row>
-    <row r="499" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="5"/>
       <c r="B499" s="5"/>
       <c r="C499" s="8"/>
@@ -15079,7 +15092,7 @@
       <c r="X499" s="5"/>
       <c r="Y499" s="5"/>
     </row>
-    <row r="500" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="5"/>
       <c r="B500" s="5"/>
       <c r="C500" s="8"/>
@@ -15106,7 +15119,7 @@
       <c r="X500" s="5"/>
       <c r="Y500" s="5"/>
     </row>
-    <row r="501" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="5"/>
       <c r="B501" s="5"/>
       <c r="C501" s="8"/>
@@ -15133,7 +15146,7 @@
       <c r="X501" s="5"/>
       <c r="Y501" s="5"/>
     </row>
-    <row r="502" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="5"/>
       <c r="B502" s="5"/>
       <c r="C502" s="8"/>
@@ -15160,7 +15173,7 @@
       <c r="X502" s="5"/>
       <c r="Y502" s="5"/>
     </row>
-    <row r="503" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="5"/>
       <c r="B503" s="5"/>
       <c r="C503" s="8"/>
@@ -15187,7 +15200,7 @@
       <c r="X503" s="5"/>
       <c r="Y503" s="5"/>
     </row>
-    <row r="504" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="5"/>
       <c r="B504" s="5"/>
       <c r="C504" s="8"/>
@@ -15214,7 +15227,7 @@
       <c r="X504" s="5"/>
       <c r="Y504" s="5"/>
     </row>
-    <row r="505" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="5"/>
       <c r="B505" s="5"/>
       <c r="C505" s="8"/>
@@ -15241,7 +15254,7 @@
       <c r="X505" s="5"/>
       <c r="Y505" s="5"/>
     </row>
-    <row r="506" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="5"/>
       <c r="B506" s="5"/>
       <c r="C506" s="8"/>
@@ -15268,7 +15281,7 @@
       <c r="X506" s="5"/>
       <c r="Y506" s="5"/>
     </row>
-    <row r="507" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="5"/>
       <c r="B507" s="5"/>
       <c r="C507" s="8"/>
@@ -15295,7 +15308,7 @@
       <c r="X507" s="5"/>
       <c r="Y507" s="5"/>
     </row>
-    <row r="508" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="5"/>
       <c r="B508" s="5"/>
       <c r="C508" s="8"/>
@@ -15322,7 +15335,7 @@
       <c r="X508" s="5"/>
       <c r="Y508" s="5"/>
     </row>
-    <row r="509" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="5"/>
       <c r="B509" s="5"/>
       <c r="C509" s="8"/>
@@ -15349,7 +15362,7 @@
       <c r="X509" s="5"/>
       <c r="Y509" s="5"/>
     </row>
-    <row r="510" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="5"/>
       <c r="B510" s="5"/>
       <c r="C510" s="8"/>
@@ -15376,7 +15389,7 @@
       <c r="X510" s="5"/>
       <c r="Y510" s="5"/>
     </row>
-    <row r="511" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="5"/>
       <c r="B511" s="5"/>
       <c r="C511" s="8"/>
@@ -15403,7 +15416,7 @@
       <c r="X511" s="5"/>
       <c r="Y511" s="5"/>
     </row>
-    <row r="512" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="5"/>
       <c r="B512" s="5"/>
       <c r="C512" s="8"/>
@@ -15430,7 +15443,7 @@
       <c r="X512" s="5"/>
       <c r="Y512" s="5"/>
     </row>
-    <row r="513" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="5"/>
       <c r="B513" s="5"/>
       <c r="C513" s="8"/>
@@ -15457,7 +15470,7 @@
       <c r="X513" s="5"/>
       <c r="Y513" s="5"/>
     </row>
-    <row r="514" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="5"/>
       <c r="B514" s="5"/>
       <c r="C514" s="8"/>
@@ -15484,7 +15497,7 @@
       <c r="X514" s="5"/>
       <c r="Y514" s="5"/>
     </row>
-    <row r="515" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="5"/>
       <c r="B515" s="5"/>
       <c r="C515" s="8"/>
@@ -15511,7 +15524,7 @@
       <c r="X515" s="5"/>
       <c r="Y515" s="5"/>
     </row>
-    <row r="516" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="5"/>
       <c r="B516" s="5"/>
       <c r="C516" s="8"/>
@@ -15538,7 +15551,7 @@
       <c r="X516" s="5"/>
       <c r="Y516" s="5"/>
     </row>
-    <row r="517" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="5"/>
       <c r="B517" s="5"/>
       <c r="C517" s="8"/>
@@ -15565,7 +15578,7 @@
       <c r="X517" s="5"/>
       <c r="Y517" s="5"/>
     </row>
-    <row r="518" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="5"/>
       <c r="B518" s="5"/>
       <c r="C518" s="8"/>
@@ -15592,7 +15605,7 @@
       <c r="X518" s="5"/>
       <c r="Y518" s="5"/>
     </row>
-    <row r="519" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="5"/>
       <c r="B519" s="5"/>
       <c r="C519" s="8"/>
@@ -15619,7 +15632,7 @@
       <c r="X519" s="5"/>
       <c r="Y519" s="5"/>
     </row>
-    <row r="520" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="5"/>
       <c r="B520" s="5"/>
       <c r="C520" s="8"/>
@@ -15646,7 +15659,7 @@
       <c r="X520" s="5"/>
       <c r="Y520" s="5"/>
     </row>
-    <row r="521" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="5"/>
       <c r="B521" s="5"/>
       <c r="C521" s="8"/>
@@ -15673,7 +15686,7 @@
       <c r="X521" s="5"/>
       <c r="Y521" s="5"/>
     </row>
-    <row r="522" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="5"/>
       <c r="B522" s="5"/>
       <c r="C522" s="8"/>
@@ -15700,7 +15713,7 @@
       <c r="X522" s="5"/>
       <c r="Y522" s="5"/>
     </row>
-    <row r="523" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="5"/>
       <c r="B523" s="5"/>
       <c r="C523" s="8"/>
@@ -15727,7 +15740,7 @@
       <c r="X523" s="5"/>
       <c r="Y523" s="5"/>
     </row>
-    <row r="524" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="5"/>
       <c r="B524" s="5"/>
       <c r="C524" s="8"/>
@@ -15754,7 +15767,7 @@
       <c r="X524" s="5"/>
       <c r="Y524" s="5"/>
     </row>
-    <row r="525" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="5"/>
       <c r="B525" s="5"/>
       <c r="C525" s="8"/>
@@ -15781,7 +15794,7 @@
       <c r="X525" s="5"/>
       <c r="Y525" s="5"/>
     </row>
-    <row r="526" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="5"/>
       <c r="B526" s="5"/>
       <c r="C526" s="8"/>
@@ -15808,7 +15821,7 @@
       <c r="X526" s="5"/>
       <c r="Y526" s="5"/>
     </row>
-    <row r="527" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="5"/>
       <c r="B527" s="5"/>
       <c r="C527" s="8"/>
@@ -15835,7 +15848,7 @@
       <c r="X527" s="5"/>
       <c r="Y527" s="5"/>
     </row>
-    <row r="528" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="5"/>
       <c r="B528" s="5"/>
       <c r="C528" s="8"/>
@@ -15862,7 +15875,7 @@
       <c r="X528" s="5"/>
       <c r="Y528" s="5"/>
     </row>
-    <row r="529" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="5"/>
       <c r="B529" s="5"/>
       <c r="C529" s="8"/>
@@ -15889,7 +15902,7 @@
       <c r="X529" s="5"/>
       <c r="Y529" s="5"/>
     </row>
-    <row r="530" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="5"/>
       <c r="B530" s="5"/>
       <c r="C530" s="8"/>
@@ -15916,7 +15929,7 @@
       <c r="X530" s="5"/>
       <c r="Y530" s="5"/>
     </row>
-    <row r="531" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="5"/>
       <c r="B531" s="5"/>
       <c r="C531" s="8"/>
@@ -15943,7 +15956,7 @@
       <c r="X531" s="5"/>
       <c r="Y531" s="5"/>
     </row>
-    <row r="532" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="5"/>
       <c r="B532" s="5"/>
       <c r="C532" s="8"/>
@@ -15970,7 +15983,7 @@
       <c r="X532" s="5"/>
       <c r="Y532" s="5"/>
     </row>
-    <row r="533" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="5"/>
       <c r="B533" s="5"/>
       <c r="C533" s="8"/>
@@ -15997,7 +16010,7 @@
       <c r="X533" s="5"/>
       <c r="Y533" s="5"/>
     </row>
-    <row r="534" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="5"/>
       <c r="B534" s="5"/>
       <c r="C534" s="8"/>
@@ -16024,7 +16037,7 @@
       <c r="X534" s="5"/>
       <c r="Y534" s="5"/>
     </row>
-    <row r="535" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="5"/>
       <c r="B535" s="5"/>
       <c r="C535" s="8"/>
@@ -16051,7 +16064,7 @@
       <c r="X535" s="5"/>
       <c r="Y535" s="5"/>
     </row>
-    <row r="536" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="5"/>
       <c r="B536" s="5"/>
       <c r="C536" s="8"/>
@@ -16078,7 +16091,7 @@
       <c r="X536" s="5"/>
       <c r="Y536" s="5"/>
     </row>
-    <row r="537" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="5"/>
       <c r="B537" s="5"/>
       <c r="C537" s="8"/>
@@ -16105,7 +16118,7 @@
       <c r="X537" s="5"/>
       <c r="Y537" s="5"/>
     </row>
-    <row r="538" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="5"/>
       <c r="B538" s="5"/>
       <c r="C538" s="8"/>
@@ -16132,7 +16145,7 @@
       <c r="X538" s="5"/>
       <c r="Y538" s="5"/>
     </row>
-    <row r="539" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="5"/>
       <c r="B539" s="5"/>
       <c r="C539" s="8"/>
@@ -16159,7 +16172,7 @@
       <c r="X539" s="5"/>
       <c r="Y539" s="5"/>
     </row>
-    <row r="540" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="5"/>
       <c r="B540" s="5"/>
       <c r="C540" s="8"/>
@@ -16186,7 +16199,7 @@
       <c r="X540" s="5"/>
       <c r="Y540" s="5"/>
     </row>
-    <row r="541" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="5"/>
       <c r="B541" s="5"/>
       <c r="C541" s="8"/>
@@ -16213,7 +16226,7 @@
       <c r="X541" s="5"/>
       <c r="Y541" s="5"/>
     </row>
-    <row r="542" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="5"/>
       <c r="B542" s="5"/>
       <c r="C542" s="8"/>
@@ -16240,7 +16253,7 @@
       <c r="X542" s="5"/>
       <c r="Y542" s="5"/>
     </row>
-    <row r="543" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="5"/>
       <c r="B543" s="5"/>
       <c r="C543" s="8"/>
@@ -16267,7 +16280,7 @@
       <c r="X543" s="5"/>
       <c r="Y543" s="5"/>
     </row>
-    <row r="544" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="5"/>
       <c r="B544" s="5"/>
       <c r="C544" s="8"/>
@@ -16294,7 +16307,7 @@
       <c r="X544" s="5"/>
       <c r="Y544" s="5"/>
     </row>
-    <row r="545" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="5"/>
       <c r="B545" s="5"/>
       <c r="C545" s="8"/>
@@ -16321,7 +16334,7 @@
       <c r="X545" s="5"/>
       <c r="Y545" s="5"/>
     </row>
-    <row r="546" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="5"/>
       <c r="B546" s="5"/>
       <c r="C546" s="8"/>
@@ -16348,7 +16361,7 @@
       <c r="X546" s="5"/>
       <c r="Y546" s="5"/>
     </row>
-    <row r="547" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="5"/>
       <c r="B547" s="5"/>
       <c r="C547" s="8"/>
@@ -16375,7 +16388,7 @@
       <c r="X547" s="5"/>
       <c r="Y547" s="5"/>
     </row>
-    <row r="548" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="5"/>
       <c r="B548" s="5"/>
       <c r="C548" s="8"/>
@@ -16402,7 +16415,7 @@
       <c r="X548" s="5"/>
       <c r="Y548" s="5"/>
     </row>
-    <row r="549" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="5"/>
       <c r="B549" s="5"/>
       <c r="C549" s="8"/>
@@ -16429,7 +16442,7 @@
       <c r="X549" s="5"/>
       <c r="Y549" s="5"/>
     </row>
-    <row r="550" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="5"/>
       <c r="B550" s="5"/>
       <c r="C550" s="8"/>
@@ -16456,7 +16469,7 @@
       <c r="X550" s="5"/>
       <c r="Y550" s="5"/>
     </row>
-    <row r="551" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="5"/>
       <c r="B551" s="5"/>
       <c r="C551" s="8"/>
@@ -16483,7 +16496,7 @@
       <c r="X551" s="5"/>
       <c r="Y551" s="5"/>
     </row>
-    <row r="552" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="5"/>
       <c r="B552" s="5"/>
       <c r="C552" s="8"/>
@@ -16510,7 +16523,7 @@
       <c r="X552" s="5"/>
       <c r="Y552" s="5"/>
     </row>
-    <row r="553" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="5"/>
       <c r="B553" s="5"/>
       <c r="C553" s="8"/>
@@ -16537,7 +16550,7 @@
       <c r="X553" s="5"/>
       <c r="Y553" s="5"/>
     </row>
-    <row r="554" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="5"/>
       <c r="B554" s="5"/>
       <c r="C554" s="8"/>
@@ -16564,7 +16577,7 @@
       <c r="X554" s="5"/>
       <c r="Y554" s="5"/>
     </row>
-    <row r="555" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="5"/>
       <c r="B555" s="5"/>
       <c r="C555" s="8"/>
@@ -16591,7 +16604,7 @@
       <c r="X555" s="5"/>
       <c r="Y555" s="5"/>
     </row>
-    <row r="556" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="5"/>
       <c r="B556" s="5"/>
       <c r="C556" s="8"/>
@@ -16618,7 +16631,7 @@
       <c r="X556" s="5"/>
       <c r="Y556" s="5"/>
     </row>
-    <row r="557" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="5"/>
       <c r="B557" s="5"/>
       <c r="C557" s="8"/>
@@ -16645,7 +16658,7 @@
       <c r="X557" s="5"/>
       <c r="Y557" s="5"/>
     </row>
-    <row r="558" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="5"/>
       <c r="B558" s="5"/>
       <c r="C558" s="8"/>
@@ -16672,7 +16685,7 @@
       <c r="X558" s="5"/>
       <c r="Y558" s="5"/>
     </row>
-    <row r="559" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="5"/>
       <c r="B559" s="5"/>
       <c r="C559" s="8"/>
@@ -16699,7 +16712,7 @@
       <c r="X559" s="5"/>
       <c r="Y559" s="5"/>
     </row>
-    <row r="560" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="5"/>
       <c r="B560" s="5"/>
       <c r="C560" s="8"/>
@@ -16726,7 +16739,7 @@
       <c r="X560" s="5"/>
       <c r="Y560" s="5"/>
     </row>
-    <row r="561" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="5"/>
       <c r="B561" s="5"/>
       <c r="C561" s="8"/>
@@ -16753,7 +16766,7 @@
       <c r="X561" s="5"/>
       <c r="Y561" s="5"/>
     </row>
-    <row r="562" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="5"/>
       <c r="B562" s="5"/>
       <c r="C562" s="8"/>
@@ -16780,7 +16793,7 @@
       <c r="X562" s="5"/>
       <c r="Y562" s="5"/>
     </row>
-    <row r="563" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="5"/>
       <c r="B563" s="5"/>
       <c r="C563" s="8"/>
@@ -16807,7 +16820,7 @@
       <c r="X563" s="5"/>
       <c r="Y563" s="5"/>
     </row>
-    <row r="564" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="5"/>
       <c r="B564" s="5"/>
       <c r="C564" s="8"/>
@@ -16834,7 +16847,7 @@
       <c r="X564" s="5"/>
       <c r="Y564" s="5"/>
     </row>
-    <row r="565" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="5"/>
       <c r="B565" s="5"/>
       <c r="C565" s="8"/>
@@ -16861,7 +16874,7 @@
       <c r="X565" s="5"/>
       <c r="Y565" s="5"/>
     </row>
-    <row r="566" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="5"/>
       <c r="B566" s="5"/>
       <c r="C566" s="8"/>
@@ -16888,7 +16901,7 @@
       <c r="X566" s="5"/>
       <c r="Y566" s="5"/>
     </row>
-    <row r="567" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="5"/>
       <c r="B567" s="5"/>
       <c r="C567" s="8"/>
@@ -16915,7 +16928,7 @@
       <c r="X567" s="5"/>
       <c r="Y567" s="5"/>
     </row>
-    <row r="568" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="5"/>
       <c r="B568" s="5"/>
       <c r="C568" s="8"/>
@@ -16942,7 +16955,7 @@
       <c r="X568" s="5"/>
       <c r="Y568" s="5"/>
     </row>
-    <row r="569" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="5"/>
       <c r="B569" s="5"/>
       <c r="C569" s="8"/>
@@ -16969,7 +16982,7 @@
       <c r="X569" s="5"/>
       <c r="Y569" s="5"/>
     </row>
-    <row r="570" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="5"/>
       <c r="B570" s="5"/>
       <c r="C570" s="8"/>
@@ -16996,7 +17009,7 @@
       <c r="X570" s="5"/>
       <c r="Y570" s="5"/>
     </row>
-    <row r="571" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="5"/>
       <c r="B571" s="5"/>
       <c r="C571" s="8"/>
@@ -17023,7 +17036,7 @@
       <c r="X571" s="5"/>
       <c r="Y571" s="5"/>
     </row>
-    <row r="572" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="5"/>
       <c r="B572" s="5"/>
       <c r="C572" s="8"/>
@@ -17050,7 +17063,7 @@
       <c r="X572" s="5"/>
       <c r="Y572" s="5"/>
     </row>
-    <row r="573" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="5"/>
       <c r="B573" s="5"/>
       <c r="C573" s="8"/>
@@ -17077,7 +17090,7 @@
       <c r="X573" s="5"/>
       <c r="Y573" s="5"/>
     </row>
-    <row r="574" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="5"/>
       <c r="B574" s="5"/>
       <c r="C574" s="8"/>
@@ -17104,7 +17117,7 @@
       <c r="X574" s="5"/>
       <c r="Y574" s="5"/>
     </row>
-    <row r="575" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="5"/>
       <c r="B575" s="5"/>
       <c r="C575" s="8"/>
@@ -17131,7 +17144,7 @@
       <c r="X575" s="5"/>
       <c r="Y575" s="5"/>
     </row>
-    <row r="576" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="5"/>
       <c r="B576" s="5"/>
       <c r="C576" s="8"/>
@@ -17158,7 +17171,7 @@
       <c r="X576" s="5"/>
       <c r="Y576" s="5"/>
     </row>
-    <row r="577" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="5"/>
       <c r="B577" s="5"/>
       <c r="C577" s="8"/>
@@ -17185,7 +17198,7 @@
       <c r="X577" s="5"/>
       <c r="Y577" s="5"/>
     </row>
-    <row r="578" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="5"/>
       <c r="B578" s="5"/>
       <c r="C578" s="8"/>
@@ -17212,7 +17225,7 @@
       <c r="X578" s="5"/>
       <c r="Y578" s="5"/>
     </row>
-    <row r="579" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="5"/>
       <c r="B579" s="5"/>
       <c r="C579" s="8"/>
@@ -17239,7 +17252,7 @@
       <c r="X579" s="5"/>
       <c r="Y579" s="5"/>
     </row>
-    <row r="580" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="5"/>
       <c r="B580" s="5"/>
       <c r="C580" s="8"/>
@@ -17266,7 +17279,7 @@
       <c r="X580" s="5"/>
       <c r="Y580" s="5"/>
     </row>
-    <row r="581" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="5"/>
       <c r="B581" s="5"/>
       <c r="C581" s="8"/>
@@ -17293,7 +17306,7 @@
       <c r="X581" s="5"/>
       <c r="Y581" s="5"/>
     </row>
-    <row r="582" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="5"/>
       <c r="B582" s="5"/>
       <c r="C582" s="8"/>
@@ -17320,7 +17333,7 @@
       <c r="X582" s="5"/>
       <c r="Y582" s="5"/>
     </row>
-    <row r="583" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="5"/>
       <c r="B583" s="5"/>
       <c r="C583" s="8"/>
@@ -17347,7 +17360,7 @@
       <c r="X583" s="5"/>
       <c r="Y583" s="5"/>
     </row>
-    <row r="584" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="5"/>
       <c r="B584" s="5"/>
       <c r="C584" s="8"/>
@@ -17374,7 +17387,7 @@
       <c r="X584" s="5"/>
       <c r="Y584" s="5"/>
     </row>
-    <row r="585" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="5"/>
       <c r="B585" s="5"/>
       <c r="C585" s="8"/>
@@ -17401,7 +17414,7 @@
       <c r="X585" s="5"/>
       <c r="Y585" s="5"/>
     </row>
-    <row r="586" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="5"/>
       <c r="B586" s="5"/>
       <c r="C586" s="8"/>
@@ -17428,7 +17441,7 @@
       <c r="X586" s="5"/>
       <c r="Y586" s="5"/>
     </row>
-    <row r="587" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="5"/>
       <c r="B587" s="5"/>
       <c r="C587" s="8"/>
@@ -17455,7 +17468,7 @@
       <c r="X587" s="5"/>
       <c r="Y587" s="5"/>
     </row>
-    <row r="588" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="5"/>
       <c r="B588" s="5"/>
       <c r="C588" s="8"/>
@@ -17482,7 +17495,7 @@
       <c r="X588" s="5"/>
       <c r="Y588" s="5"/>
     </row>
-    <row r="589" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="5"/>
       <c r="B589" s="5"/>
       <c r="C589" s="8"/>
@@ -17509,7 +17522,7 @@
       <c r="X589" s="5"/>
       <c r="Y589" s="5"/>
     </row>
-    <row r="590" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="5"/>
       <c r="B590" s="5"/>
       <c r="C590" s="8"/>
@@ -17536,7 +17549,7 @@
       <c r="X590" s="5"/>
       <c r="Y590" s="5"/>
     </row>
-    <row r="591" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="5"/>
       <c r="B591" s="5"/>
       <c r="C591" s="8"/>
@@ -17563,7 +17576,7 @@
       <c r="X591" s="5"/>
       <c r="Y591" s="5"/>
     </row>
-    <row r="592" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="5"/>
       <c r="B592" s="5"/>
       <c r="C592" s="8"/>
@@ -17590,7 +17603,7 @@
       <c r="X592" s="5"/>
       <c r="Y592" s="5"/>
     </row>
-    <row r="593" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="5"/>
       <c r="B593" s="5"/>
       <c r="C593" s="8"/>
@@ -17617,7 +17630,7 @@
       <c r="X593" s="5"/>
       <c r="Y593" s="5"/>
     </row>
-    <row r="594" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="5"/>
       <c r="B594" s="5"/>
       <c r="C594" s="8"/>
@@ -17644,7 +17657,7 @@
       <c r="X594" s="5"/>
       <c r="Y594" s="5"/>
     </row>
-    <row r="595" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="5"/>
       <c r="B595" s="5"/>
       <c r="C595" s="8"/>
@@ -17671,7 +17684,7 @@
       <c r="X595" s="5"/>
       <c r="Y595" s="5"/>
     </row>
-    <row r="596" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="5"/>
       <c r="B596" s="5"/>
       <c r="C596" s="8"/>
@@ -17698,7 +17711,7 @@
       <c r="X596" s="5"/>
       <c r="Y596" s="5"/>
     </row>
-    <row r="597" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="5"/>
       <c r="B597" s="5"/>
       <c r="C597" s="8"/>
@@ -17725,7 +17738,7 @@
       <c r="X597" s="5"/>
       <c r="Y597" s="5"/>
     </row>
-    <row r="598" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="5"/>
       <c r="B598" s="5"/>
       <c r="C598" s="8"/>
@@ -17752,7 +17765,7 @@
       <c r="X598" s="5"/>
       <c r="Y598" s="5"/>
     </row>
-    <row r="599" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="5"/>
       <c r="B599" s="5"/>
       <c r="C599" s="8"/>
@@ -17779,7 +17792,7 @@
       <c r="X599" s="5"/>
       <c r="Y599" s="5"/>
     </row>
-    <row r="600" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="5"/>
       <c r="B600" s="5"/>
       <c r="C600" s="8"/>
@@ -17806,7 +17819,7 @@
       <c r="X600" s="5"/>
       <c r="Y600" s="5"/>
     </row>
-    <row r="601" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="5"/>
       <c r="B601" s="5"/>
       <c r="C601" s="8"/>
@@ -17833,7 +17846,7 @@
       <c r="X601" s="5"/>
       <c r="Y601" s="5"/>
     </row>
-    <row r="602" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="5"/>
       <c r="B602" s="5"/>
       <c r="C602" s="8"/>
@@ -17860,7 +17873,7 @@
       <c r="X602" s="5"/>
       <c r="Y602" s="5"/>
     </row>
-    <row r="603" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="5"/>
       <c r="B603" s="5"/>
       <c r="C603" s="8"/>
@@ -17887,7 +17900,7 @@
       <c r="X603" s="5"/>
       <c r="Y603" s="5"/>
     </row>
-    <row r="604" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="5"/>
       <c r="B604" s="5"/>
       <c r="C604" s="8"/>
@@ -17914,7 +17927,7 @@
       <c r="X604" s="5"/>
       <c r="Y604" s="5"/>
     </row>
-    <row r="605" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="5"/>
       <c r="B605" s="5"/>
       <c r="C605" s="8"/>
@@ -17941,7 +17954,7 @@
       <c r="X605" s="5"/>
       <c r="Y605" s="5"/>
     </row>
-    <row r="606" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="5"/>
       <c r="B606" s="5"/>
       <c r="C606" s="8"/>
@@ -17968,7 +17981,7 @@
       <c r="X606" s="5"/>
       <c r="Y606" s="5"/>
     </row>
-    <row r="607" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="5"/>
       <c r="B607" s="5"/>
       <c r="C607" s="8"/>
@@ -17995,7 +18008,7 @@
       <c r="X607" s="5"/>
       <c r="Y607" s="5"/>
     </row>
-    <row r="608" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="5"/>
       <c r="B608" s="5"/>
       <c r="C608" s="8"/>
@@ -18022,7 +18035,7 @@
       <c r="X608" s="5"/>
       <c r="Y608" s="5"/>
     </row>
-    <row r="609" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="5"/>
       <c r="B609" s="5"/>
       <c r="C609" s="8"/>
@@ -18049,7 +18062,7 @@
       <c r="X609" s="5"/>
       <c r="Y609" s="5"/>
     </row>
-    <row r="610" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="5"/>
       <c r="B610" s="5"/>
       <c r="C610" s="8"/>
@@ -18076,7 +18089,7 @@
       <c r="X610" s="5"/>
       <c r="Y610" s="5"/>
     </row>
-    <row r="611" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="5"/>
       <c r="B611" s="5"/>
       <c r="C611" s="8"/>
@@ -18103,7 +18116,7 @@
       <c r="X611" s="5"/>
       <c r="Y611" s="5"/>
     </row>
-    <row r="612" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="5"/>
       <c r="B612" s="5"/>
       <c r="C612" s="8"/>
@@ -18130,7 +18143,7 @@
       <c r="X612" s="5"/>
       <c r="Y612" s="5"/>
     </row>
-    <row r="613" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="5"/>
       <c r="B613" s="5"/>
       <c r="C613" s="8"/>
@@ -18157,7 +18170,7 @@
       <c r="X613" s="5"/>
       <c r="Y613" s="5"/>
     </row>
-    <row r="614" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="5"/>
       <c r="B614" s="5"/>
       <c r="C614" s="8"/>
@@ -18184,7 +18197,7 @@
       <c r="X614" s="5"/>
       <c r="Y614" s="5"/>
     </row>
-    <row r="615" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="5"/>
       <c r="B615" s="5"/>
       <c r="C615" s="8"/>
@@ -18211,7 +18224,7 @@
       <c r="X615" s="5"/>
       <c r="Y615" s="5"/>
     </row>
-    <row r="616" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="5"/>
       <c r="B616" s="5"/>
       <c r="C616" s="8"/>
@@ -18238,7 +18251,7 @@
       <c r="X616" s="5"/>
       <c r="Y616" s="5"/>
     </row>
-    <row r="617" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="5"/>
       <c r="B617" s="5"/>
       <c r="C617" s="8"/>
@@ -18265,7 +18278,7 @@
       <c r="X617" s="5"/>
       <c r="Y617" s="5"/>
     </row>
-    <row r="618" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="5"/>
       <c r="B618" s="5"/>
       <c r="C618" s="8"/>
@@ -18292,7 +18305,7 @@
       <c r="X618" s="5"/>
       <c r="Y618" s="5"/>
     </row>
-    <row r="619" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="5"/>
       <c r="B619" s="5"/>
       <c r="C619" s="8"/>
@@ -18319,7 +18332,7 @@
       <c r="X619" s="5"/>
       <c r="Y619" s="5"/>
     </row>
-    <row r="620" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="5"/>
       <c r="B620" s="5"/>
       <c r="C620" s="8"/>
@@ -18346,7 +18359,7 @@
       <c r="X620" s="5"/>
       <c r="Y620" s="5"/>
     </row>
-    <row r="621" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="5"/>
       <c r="B621" s="5"/>
       <c r="C621" s="8"/>
@@ -18373,7 +18386,7 @@
       <c r="X621" s="5"/>
       <c r="Y621" s="5"/>
     </row>
-    <row r="622" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="5"/>
       <c r="B622" s="5"/>
       <c r="C622" s="8"/>
@@ -18400,7 +18413,7 @@
       <c r="X622" s="5"/>
       <c r="Y622" s="5"/>
     </row>
-    <row r="623" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="5"/>
       <c r="B623" s="5"/>
       <c r="C623" s="8"/>
@@ -18427,7 +18440,7 @@
       <c r="X623" s="5"/>
       <c r="Y623" s="5"/>
     </row>
-    <row r="624" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="5"/>
       <c r="B624" s="5"/>
       <c r="C624" s="8"/>
@@ -18454,7 +18467,7 @@
       <c r="X624" s="5"/>
       <c r="Y624" s="5"/>
     </row>
-    <row r="625" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="5"/>
       <c r="B625" s="5"/>
       <c r="C625" s="8"/>
@@ -18481,7 +18494,7 @@
       <c r="X625" s="5"/>
       <c r="Y625" s="5"/>
     </row>
-    <row r="626" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="5"/>
       <c r="B626" s="5"/>
       <c r="C626" s="8"/>
@@ -18508,7 +18521,7 @@
       <c r="X626" s="5"/>
       <c r="Y626" s="5"/>
     </row>
-    <row r="627" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="5"/>
       <c r="B627" s="5"/>
       <c r="C627" s="8"/>
@@ -18535,7 +18548,7 @@
       <c r="X627" s="5"/>
       <c r="Y627" s="5"/>
     </row>
-    <row r="628" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="5"/>
       <c r="B628" s="5"/>
       <c r="C628" s="8"/>
@@ -18562,7 +18575,7 @@
       <c r="X628" s="5"/>
       <c r="Y628" s="5"/>
     </row>
-    <row r="629" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="5"/>
       <c r="B629" s="5"/>
       <c r="C629" s="8"/>
@@ -18589,7 +18602,7 @@
       <c r="X629" s="5"/>
       <c r="Y629" s="5"/>
     </row>
-    <row r="630" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="5"/>
       <c r="B630" s="5"/>
       <c r="C630" s="8"/>
@@ -18616,7 +18629,7 @@
       <c r="X630" s="5"/>
       <c r="Y630" s="5"/>
     </row>
-    <row r="631" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="5"/>
       <c r="B631" s="5"/>
       <c r="C631" s="8"/>
@@ -18643,7 +18656,7 @@
       <c r="X631" s="5"/>
       <c r="Y631" s="5"/>
     </row>
-    <row r="632" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="5"/>
       <c r="B632" s="5"/>
       <c r="C632" s="8"/>
@@ -18670,7 +18683,7 @@
       <c r="X632" s="5"/>
       <c r="Y632" s="5"/>
     </row>
-    <row r="633" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="5"/>
       <c r="B633" s="5"/>
       <c r="C633" s="8"/>
@@ -18697,7 +18710,7 @@
       <c r="X633" s="5"/>
       <c r="Y633" s="5"/>
     </row>
-    <row r="634" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="5"/>
       <c r="B634" s="5"/>
       <c r="C634" s="8"/>
@@ -18724,7 +18737,7 @@
       <c r="X634" s="5"/>
       <c r="Y634" s="5"/>
     </row>
-    <row r="635" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="5"/>
       <c r="B635" s="5"/>
       <c r="C635" s="8"/>
@@ -18751,7 +18764,7 @@
       <c r="X635" s="5"/>
       <c r="Y635" s="5"/>
     </row>
-    <row r="636" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="5"/>
       <c r="B636" s="5"/>
       <c r="C636" s="8"/>
@@ -18778,7 +18791,7 @@
       <c r="X636" s="5"/>
       <c r="Y636" s="5"/>
     </row>
-    <row r="637" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="5"/>
       <c r="B637" s="5"/>
       <c r="C637" s="8"/>
@@ -18805,7 +18818,7 @@
       <c r="X637" s="5"/>
       <c r="Y637" s="5"/>
     </row>
-    <row r="638" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="5"/>
       <c r="B638" s="5"/>
       <c r="C638" s="8"/>
@@ -18832,7 +18845,7 @@
       <c r="X638" s="5"/>
       <c r="Y638" s="5"/>
     </row>
-    <row r="639" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="5"/>
       <c r="B639" s="5"/>
       <c r="C639" s="8"/>
@@ -18859,7 +18872,7 @@
       <c r="X639" s="5"/>
       <c r="Y639" s="5"/>
     </row>
-    <row r="640" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="5"/>
       <c r="B640" s="5"/>
       <c r="C640" s="8"/>
@@ -18886,7 +18899,7 @@
       <c r="X640" s="5"/>
       <c r="Y640" s="5"/>
     </row>
-    <row r="641" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="5"/>
       <c r="B641" s="5"/>
       <c r="C641" s="8"/>
@@ -18913,7 +18926,7 @@
       <c r="X641" s="5"/>
       <c r="Y641" s="5"/>
     </row>
-    <row r="642" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="5"/>
       <c r="B642" s="5"/>
       <c r="C642" s="8"/>
@@ -18940,7 +18953,7 @@
       <c r="X642" s="5"/>
       <c r="Y642" s="5"/>
     </row>
-    <row r="643" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="5"/>
       <c r="B643" s="5"/>
       <c r="C643" s="8"/>
@@ -18967,7 +18980,7 @@
       <c r="X643" s="5"/>
       <c r="Y643" s="5"/>
     </row>
-    <row r="644" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="5"/>
       <c r="B644" s="5"/>
       <c r="C644" s="8"/>
@@ -18994,7 +19007,7 @@
       <c r="X644" s="5"/>
       <c r="Y644" s="5"/>
     </row>
-    <row r="645" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="5"/>
       <c r="B645" s="5"/>
       <c r="C645" s="8"/>
@@ -19021,7 +19034,7 @@
       <c r="X645" s="5"/>
       <c r="Y645" s="5"/>
     </row>
-    <row r="646" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="5"/>
       <c r="B646" s="5"/>
       <c r="C646" s="8"/>
@@ -19048,7 +19061,7 @@
       <c r="X646" s="5"/>
       <c r="Y646" s="5"/>
     </row>
-    <row r="647" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="5"/>
       <c r="B647" s="5"/>
       <c r="C647" s="8"/>
@@ -19075,7 +19088,7 @@
       <c r="X647" s="5"/>
       <c r="Y647" s="5"/>
     </row>
-    <row r="648" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="5"/>
       <c r="B648" s="5"/>
       <c r="C648" s="8"/>
@@ -19102,7 +19115,7 @@
       <c r="X648" s="5"/>
       <c r="Y648" s="5"/>
     </row>
-    <row r="649" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="5"/>
       <c r="B649" s="5"/>
       <c r="C649" s="8"/>
@@ -19129,7 +19142,7 @@
       <c r="X649" s="5"/>
       <c r="Y649" s="5"/>
     </row>
-    <row r="650" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="5"/>
       <c r="B650" s="5"/>
       <c r="C650" s="8"/>
@@ -19156,7 +19169,7 @@
       <c r="X650" s="5"/>
       <c r="Y650" s="5"/>
     </row>
-    <row r="651" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="5"/>
       <c r="B651" s="5"/>
       <c r="C651" s="8"/>
@@ -19183,7 +19196,7 @@
       <c r="X651" s="5"/>
       <c r="Y651" s="5"/>
     </row>
-    <row r="652" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="5"/>
       <c r="B652" s="5"/>
       <c r="C652" s="8"/>
@@ -19210,7 +19223,7 @@
       <c r="X652" s="5"/>
       <c r="Y652" s="5"/>
     </row>
-    <row r="653" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="5"/>
       <c r="B653" s="5"/>
       <c r="C653" s="8"/>
@@ -19237,7 +19250,7 @@
       <c r="X653" s="5"/>
       <c r="Y653" s="5"/>
     </row>
-    <row r="654" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="5"/>
       <c r="B654" s="5"/>
       <c r="C654" s="8"/>
@@ -19264,7 +19277,7 @@
       <c r="X654" s="5"/>
       <c r="Y654" s="5"/>
     </row>
-    <row r="655" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="5"/>
       <c r="B655" s="5"/>
       <c r="C655" s="8"/>
@@ -19291,7 +19304,7 @@
       <c r="X655" s="5"/>
       <c r="Y655" s="5"/>
     </row>
-    <row r="656" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="5"/>
       <c r="B656" s="5"/>
       <c r="C656" s="8"/>
@@ -19318,7 +19331,7 @@
       <c r="X656" s="5"/>
       <c r="Y656" s="5"/>
     </row>
-    <row r="657" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="5"/>
       <c r="B657" s="5"/>
       <c r="C657" s="8"/>
@@ -19345,7 +19358,7 @@
       <c r="X657" s="5"/>
       <c r="Y657" s="5"/>
     </row>
-    <row r="658" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="5"/>
       <c r="B658" s="5"/>
       <c r="C658" s="8"/>
@@ -19372,7 +19385,7 @@
       <c r="X658" s="5"/>
       <c r="Y658" s="5"/>
     </row>
-    <row r="659" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="5"/>
       <c r="B659" s="5"/>
       <c r="C659" s="8"/>
@@ -19399,7 +19412,7 @@
       <c r="X659" s="5"/>
       <c r="Y659" s="5"/>
     </row>
-    <row r="660" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="5"/>
       <c r="B660" s="5"/>
       <c r="C660" s="8"/>
@@ -19426,7 +19439,7 @@
       <c r="X660" s="5"/>
       <c r="Y660" s="5"/>
     </row>
-    <row r="661" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="5"/>
       <c r="B661" s="5"/>
       <c r="C661" s="8"/>
@@ -19453,7 +19466,7 @@
       <c r="X661" s="5"/>
       <c r="Y661" s="5"/>
     </row>
-    <row r="662" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="5"/>
       <c r="B662" s="5"/>
       <c r="C662" s="8"/>
@@ -19480,7 +19493,7 @@
       <c r="X662" s="5"/>
       <c r="Y662" s="5"/>
     </row>
-    <row r="663" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="5"/>
       <c r="B663" s="5"/>
       <c r="C663" s="8"/>
@@ -19507,7 +19520,7 @@
       <c r="X663" s="5"/>
       <c r="Y663" s="5"/>
     </row>
-    <row r="664" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="5"/>
       <c r="B664" s="5"/>
       <c r="C664" s="8"/>
@@ -19534,7 +19547,7 @@
       <c r="X664" s="5"/>
       <c r="Y664" s="5"/>
     </row>
-    <row r="665" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="5"/>
       <c r="B665" s="5"/>
       <c r="C665" s="8"/>
@@ -19561,7 +19574,7 @@
       <c r="X665" s="5"/>
       <c r="Y665" s="5"/>
     </row>
-    <row r="666" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="5"/>
       <c r="B666" s="5"/>
       <c r="C666" s="8"/>
@@ -19588,7 +19601,7 @@
       <c r="X666" s="5"/>
       <c r="Y666" s="5"/>
     </row>
-    <row r="667" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="5"/>
       <c r="B667" s="5"/>
       <c r="C667" s="8"/>
@@ -19615,7 +19628,7 @@
       <c r="X667" s="5"/>
       <c r="Y667" s="5"/>
     </row>
-    <row r="668" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="5"/>
       <c r="B668" s="5"/>
       <c r="C668" s="8"/>
@@ -19642,7 +19655,7 @@
       <c r="X668" s="5"/>
       <c r="Y668" s="5"/>
     </row>
-    <row r="669" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="5"/>
       <c r="B669" s="5"/>
       <c r="C669" s="8"/>
@@ -19669,7 +19682,7 @@
       <c r="X669" s="5"/>
       <c r="Y669" s="5"/>
     </row>
-    <row r="670" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="5"/>
       <c r="B670" s="5"/>
       <c r="C670" s="8"/>
@@ -19696,7 +19709,7 @@
       <c r="X670" s="5"/>
       <c r="Y670" s="5"/>
     </row>
-    <row r="671" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="5"/>
       <c r="B671" s="5"/>
       <c r="C671" s="8"/>
@@ -19723,7 +19736,7 @@
       <c r="X671" s="5"/>
       <c r="Y671" s="5"/>
     </row>
-    <row r="672" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="5"/>
       <c r="B672" s="5"/>
       <c r="C672" s="8"/>
@@ -19750,7 +19763,7 @@
       <c r="X672" s="5"/>
       <c r="Y672" s="5"/>
     </row>
-    <row r="673" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="5"/>
       <c r="B673" s="5"/>
       <c r="C673" s="8"/>
@@ -19777,7 +19790,7 @@
       <c r="X673" s="5"/>
       <c r="Y673" s="5"/>
     </row>
-    <row r="674" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="5"/>
       <c r="B674" s="5"/>
       <c r="C674" s="8"/>
@@ -19804,7 +19817,7 @@
       <c r="X674" s="5"/>
       <c r="Y674" s="5"/>
     </row>
-    <row r="675" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="5"/>
       <c r="B675" s="5"/>
       <c r="C675" s="8"/>
@@ -19831,7 +19844,7 @@
       <c r="X675" s="5"/>
       <c r="Y675" s="5"/>
     </row>
-    <row r="676" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="5"/>
       <c r="B676" s="5"/>
       <c r="C676" s="8"/>
@@ -19858,7 +19871,7 @@
       <c r="X676" s="5"/>
       <c r="Y676" s="5"/>
     </row>
-    <row r="677" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="5"/>
       <c r="B677" s="5"/>
       <c r="C677" s="8"/>
@@ -19885,7 +19898,7 @@
       <c r="X677" s="5"/>
       <c r="Y677" s="5"/>
     </row>
-    <row r="678" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="5"/>
       <c r="B678" s="5"/>
       <c r="C678" s="8"/>
@@ -19912,7 +19925,7 @@
       <c r="X678" s="5"/>
       <c r="Y678" s="5"/>
     </row>
-    <row r="679" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="5"/>
       <c r="B679" s="5"/>
       <c r="C679" s="8"/>
@@ -19939,7 +19952,7 @@
       <c r="X679" s="5"/>
       <c r="Y679" s="5"/>
     </row>
-    <row r="680" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="5"/>
       <c r="B680" s="5"/>
       <c r="C680" s="8"/>
@@ -19966,7 +19979,7 @@
       <c r="X680" s="5"/>
       <c r="Y680" s="5"/>
     </row>
-    <row r="681" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="5"/>
       <c r="B681" s="5"/>
       <c r="C681" s="8"/>
@@ -19993,7 +20006,7 @@
       <c r="X681" s="5"/>
       <c r="Y681" s="5"/>
     </row>
-    <row r="682" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="5"/>
       <c r="B682" s="5"/>
       <c r="C682" s="8"/>
@@ -20020,7 +20033,7 @@
       <c r="X682" s="5"/>
       <c r="Y682" s="5"/>
     </row>
-    <row r="683" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="5"/>
       <c r="B683" s="5"/>
       <c r="C683" s="8"/>
@@ -20047,7 +20060,7 @@
       <c r="X683" s="5"/>
       <c r="Y683" s="5"/>
     </row>
-    <row r="684" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="5"/>
       <c r="B684" s="5"/>
       <c r="C684" s="8"/>
@@ -20074,7 +20087,7 @@
       <c r="X684" s="5"/>
       <c r="Y684" s="5"/>
     </row>
-    <row r="685" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="5"/>
       <c r="B685" s="5"/>
       <c r="C685" s="8"/>
@@ -20101,7 +20114,7 @@
       <c r="X685" s="5"/>
       <c r="Y685" s="5"/>
     </row>
-    <row r="686" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="5"/>
       <c r="B686" s="5"/>
       <c r="C686" s="8"/>
@@ -20128,7 +20141,7 @@
       <c r="X686" s="5"/>
       <c r="Y686" s="5"/>
     </row>
-    <row r="687" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="5"/>
       <c r="B687" s="5"/>
       <c r="C687" s="8"/>
@@ -20155,7 +20168,7 @@
       <c r="X687" s="5"/>
       <c r="Y687" s="5"/>
     </row>
-    <row r="688" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="5"/>
       <c r="B688" s="5"/>
       <c r="C688" s="8"/>
@@ -20182,7 +20195,7 @@
       <c r="X688" s="5"/>
       <c r="Y688" s="5"/>
     </row>
-    <row r="689" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="5"/>
       <c r="B689" s="5"/>
       <c r="C689" s="8"/>
@@ -20209,7 +20222,7 @@
       <c r="X689" s="5"/>
       <c r="Y689" s="5"/>
     </row>
-    <row r="690" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="5"/>
       <c r="B690" s="5"/>
       <c r="C690" s="8"/>
@@ -20236,7 +20249,7 @@
       <c r="X690" s="5"/>
       <c r="Y690" s="5"/>
     </row>
-    <row r="691" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="5"/>
       <c r="B691" s="5"/>
       <c r="C691" s="8"/>
@@ -20263,7 +20276,7 @@
       <c r="X691" s="5"/>
       <c r="Y691" s="5"/>
     </row>
-    <row r="692" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="5"/>
       <c r="B692" s="5"/>
       <c r="C692" s="8"/>
@@ -20290,7 +20303,7 @@
       <c r="X692" s="5"/>
       <c r="Y692" s="5"/>
     </row>
-    <row r="693" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="5"/>
       <c r="B693" s="5"/>
       <c r="C693" s="8"/>
@@ -20317,7 +20330,7 @@
       <c r="X693" s="5"/>
       <c r="Y693" s="5"/>
     </row>
-    <row r="694" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="5"/>
       <c r="B694" s="5"/>
       <c r="C694" s="8"/>
@@ -20344,7 +20357,7 @@
       <c r="X694" s="5"/>
       <c r="Y694" s="5"/>
     </row>
-    <row r="695" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="5"/>
       <c r="B695" s="5"/>
       <c r="C695" s="8"/>
@@ -20371,7 +20384,7 @@
       <c r="X695" s="5"/>
       <c r="Y695" s="5"/>
     </row>
-    <row r="696" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="5"/>
       <c r="B696" s="5"/>
       <c r="C696" s="8"/>
@@ -20398,7 +20411,7 @@
       <c r="X696" s="5"/>
       <c r="Y696" s="5"/>
     </row>
-    <row r="697" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="5"/>
       <c r="B697" s="5"/>
       <c r="C697" s="8"/>
@@ -20425,7 +20438,7 @@
       <c r="X697" s="5"/>
       <c r="Y697" s="5"/>
     </row>
-    <row r="698" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="5"/>
       <c r="B698" s="5"/>
       <c r="C698" s="8"/>
@@ -20452,7 +20465,7 @@
       <c r="X698" s="5"/>
       <c r="Y698" s="5"/>
     </row>
-    <row r="699" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="5"/>
       <c r="B699" s="5"/>
       <c r="C699" s="8"/>
@@ -20479,7 +20492,7 @@
       <c r="X699" s="5"/>
       <c r="Y699" s="5"/>
     </row>
-    <row r="700" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="5"/>
       <c r="B700" s="5"/>
       <c r="C700" s="8"/>
@@ -20506,7 +20519,7 @@
       <c r="X700" s="5"/>
       <c r="Y700" s="5"/>
     </row>
-    <row r="701" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="5"/>
       <c r="B701" s="5"/>
       <c r="C701" s="8"/>
@@ -20533,7 +20546,7 @@
       <c r="X701" s="5"/>
       <c r="Y701" s="5"/>
     </row>
-    <row r="702" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="5"/>
       <c r="B702" s="5"/>
       <c r="C702" s="8"/>
@@ -20560,7 +20573,7 @@
       <c r="X702" s="5"/>
       <c r="Y702" s="5"/>
     </row>
-    <row r="703" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="5"/>
       <c r="B703" s="5"/>
       <c r="C703" s="8"/>
@@ -20587,7 +20600,7 @@
       <c r="X703" s="5"/>
       <c r="Y703" s="5"/>
     </row>
-    <row r="704" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="5"/>
       <c r="B704" s="5"/>
       <c r="C704" s="8"/>
@@ -20614,7 +20627,7 @@
       <c r="X704" s="5"/>
       <c r="Y704" s="5"/>
     </row>
-    <row r="705" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="5"/>
       <c r="B705" s="5"/>
       <c r="C705" s="8"/>
@@ -20641,7 +20654,7 @@
       <c r="X705" s="5"/>
       <c r="Y705" s="5"/>
     </row>
-    <row r="706" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="5"/>
       <c r="B706" s="5"/>
       <c r="C706" s="8"/>
@@ -20668,7 +20681,7 @@
       <c r="X706" s="5"/>
       <c r="Y706" s="5"/>
     </row>
-    <row r="707" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="5"/>
       <c r="B707" s="5"/>
       <c r="C707" s="8"/>
@@ -20695,7 +20708,7 @@
       <c r="X707" s="5"/>
       <c r="Y707" s="5"/>
     </row>
-    <row r="708" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="5"/>
       <c r="B708" s="5"/>
       <c r="C708" s="8"/>
@@ -20722,7 +20735,7 @@
       <c r="X708" s="5"/>
       <c r="Y708" s="5"/>
     </row>
-    <row r="709" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="5"/>
       <c r="B709" s="5"/>
       <c r="C709" s="8"/>
@@ -20749,7 +20762,7 @@
       <c r="X709" s="5"/>
       <c r="Y709" s="5"/>
     </row>
-    <row r="710" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="5"/>
       <c r="B710" s="5"/>
       <c r="C710" s="8"/>
@@ -20776,7 +20789,7 @@
       <c r="X710" s="5"/>
       <c r="Y710" s="5"/>
     </row>
-    <row r="711" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="5"/>
       <c r="B711" s="5"/>
       <c r="C711" s="8"/>
@@ -20803,7 +20816,7 @@
       <c r="X711" s="5"/>
       <c r="Y711" s="5"/>
     </row>
-    <row r="712" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="5"/>
       <c r="B712" s="5"/>
       <c r="C712" s="8"/>
@@ -20830,7 +20843,7 @@
       <c r="X712" s="5"/>
       <c r="Y712" s="5"/>
     </row>
-    <row r="713" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="5"/>
       <c r="B713" s="5"/>
       <c r="C713" s="8"/>
@@ -20857,7 +20870,7 @@
       <c r="X713" s="5"/>
       <c r="Y713" s="5"/>
     </row>
-    <row r="714" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="5"/>
       <c r="B714" s="5"/>
       <c r="C714" s="8"/>
@@ -20884,7 +20897,7 @@
       <c r="X714" s="5"/>
       <c r="Y714" s="5"/>
     </row>
-    <row r="715" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="5"/>
       <c r="B715" s="5"/>
       <c r="C715" s="8"/>
@@ -20911,7 +20924,7 @@
       <c r="X715" s="5"/>
       <c r="Y715" s="5"/>
     </row>
-    <row r="716" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="5"/>
       <c r="B716" s="5"/>
       <c r="C716" s="8"/>
@@ -20938,7 +20951,7 @@
       <c r="X716" s="5"/>
       <c r="Y716" s="5"/>
     </row>
-    <row r="717" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="5"/>
       <c r="B717" s="5"/>
       <c r="C717" s="8"/>
@@ -20965,7 +20978,7 @@
       <c r="X717" s="5"/>
       <c r="Y717" s="5"/>
     </row>
-    <row r="718" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="5"/>
       <c r="B718" s="5"/>
       <c r="C718" s="8"/>
@@ -20992,7 +21005,7 @@
       <c r="X718" s="5"/>
       <c r="Y718" s="5"/>
     </row>
-    <row r="719" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="5"/>
       <c r="B719" s="5"/>
       <c r="C719" s="8"/>
@@ -21019,7 +21032,7 @@
       <c r="X719" s="5"/>
       <c r="Y719" s="5"/>
     </row>
-    <row r="720" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="5"/>
       <c r="B720" s="5"/>
       <c r="C720" s="8"/>
@@ -21046,7 +21059,7 @@
       <c r="X720" s="5"/>
       <c r="Y720" s="5"/>
     </row>
-    <row r="721" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="5"/>
       <c r="B721" s="5"/>
       <c r="C721" s="8"/>
@@ -21073,7 +21086,7 @@
       <c r="X721" s="5"/>
       <c r="Y721" s="5"/>
     </row>
-    <row r="722" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="5"/>
       <c r="B722" s="5"/>
       <c r="C722" s="8"/>
@@ -21100,7 +21113,7 @@
       <c r="X722" s="5"/>
       <c r="Y722" s="5"/>
     </row>
-    <row r="723" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="5"/>
       <c r="B723" s="5"/>
       <c r="C723" s="8"/>
@@ -21127,7 +21140,7 @@
       <c r="X723" s="5"/>
       <c r="Y723" s="5"/>
     </row>
-    <row r="724" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="5"/>
       <c r="B724" s="5"/>
       <c r="C724" s="8"/>
@@ -21154,7 +21167,7 @@
       <c r="X724" s="5"/>
       <c r="Y724" s="5"/>
     </row>
-    <row r="725" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="5"/>
       <c r="B725" s="5"/>
       <c r="C725" s="8"/>
@@ -21181,7 +21194,7 @@
       <c r="X725" s="5"/>
       <c r="Y725" s="5"/>
     </row>
-    <row r="726" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="5"/>
       <c r="B726" s="5"/>
       <c r="C726" s="8"/>
@@ -21208,7 +21221,7 @@
       <c r="X726" s="5"/>
       <c r="Y726" s="5"/>
     </row>
-    <row r="727" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="5"/>
       <c r="B727" s="5"/>
       <c r="C727" s="8"/>
@@ -21235,7 +21248,7 @@
       <c r="X727" s="5"/>
       <c r="Y727" s="5"/>
     </row>
-    <row r="728" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="5"/>
       <c r="B728" s="5"/>
       <c r="C728" s="8"/>
@@ -21262,7 +21275,7 @@
       <c r="X728" s="5"/>
       <c r="Y728" s="5"/>
     </row>
-    <row r="729" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="5"/>
       <c r="B729" s="5"/>
       <c r="C729" s="8"/>
@@ -21289,7 +21302,7 @@
       <c r="X729" s="5"/>
       <c r="Y729" s="5"/>
     </row>
-    <row r="730" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="5"/>
       <c r="B730" s="5"/>
       <c r="C730" s="8"/>
@@ -21316,7 +21329,7 @@
       <c r="X730" s="5"/>
       <c r="Y730" s="5"/>
     </row>
-    <row r="731" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="5"/>
       <c r="B731" s="5"/>
       <c r="C731" s="8"/>
@@ -21343,7 +21356,7 @@
       <c r="X731" s="5"/>
       <c r="Y731" s="5"/>
     </row>
-    <row r="732" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="5"/>
       <c r="B732" s="5"/>
       <c r="C732" s="8"/>
@@ -21370,7 +21383,7 @@
       <c r="X732" s="5"/>
       <c r="Y732" s="5"/>
     </row>
-    <row r="733" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="5"/>
       <c r="B733" s="5"/>
       <c r="C733" s="8"/>
@@ -21397,7 +21410,7 @@
       <c r="X733" s="5"/>
       <c r="Y733" s="5"/>
     </row>
-    <row r="734" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="5"/>
       <c r="B734" s="5"/>
       <c r="C734" s="8"/>
@@ -21424,7 +21437,7 @@
       <c r="X734" s="5"/>
       <c r="Y734" s="5"/>
     </row>
-    <row r="735" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="5"/>
       <c r="B735" s="5"/>
       <c r="C735" s="8"/>
@@ -21451,7 +21464,7 @@
       <c r="X735" s="5"/>
       <c r="Y735" s="5"/>
     </row>
-    <row r="736" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="5"/>
       <c r="B736" s="5"/>
       <c r="C736" s="8"/>
@@ -21478,7 +21491,7 @@
       <c r="X736" s="5"/>
       <c r="Y736" s="5"/>
     </row>
-    <row r="737" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="5"/>
       <c r="B737" s="5"/>
       <c r="C737" s="8"/>
@@ -21505,7 +21518,7 @@
       <c r="X737" s="5"/>
       <c r="Y737" s="5"/>
     </row>
-    <row r="738" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="5"/>
       <c r="B738" s="5"/>
       <c r="C738" s="8"/>
@@ -21532,7 +21545,7 @@
       <c r="X738" s="5"/>
       <c r="Y738" s="5"/>
     </row>
-    <row r="739" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="5"/>
       <c r="B739" s="5"/>
       <c r="C739" s="8"/>
@@ -21559,7 +21572,7 @@
       <c r="X739" s="5"/>
       <c r="Y739" s="5"/>
     </row>
-    <row r="740" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="5"/>
       <c r="B740" s="5"/>
       <c r="C740" s="8"/>
@@ -21586,7 +21599,7 @@
       <c r="X740" s="5"/>
       <c r="Y740" s="5"/>
     </row>
-    <row r="741" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C741" s="9"/>
       <c r="D741" s="9"/>
       <c r="E741" s="9"/>
@@ -21597,7 +21610,7 @@
       <c r="J741" s="9"/>
       <c r="K741" s="9"/>
     </row>
-    <row r="742" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C742" s="9"/>
       <c r="D742" s="9"/>
       <c r="E742" s="9"/>
@@ -21608,7 +21621,7 @@
       <c r="J742" s="9"/>
       <c r="K742" s="9"/>
     </row>
-    <row r="743" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C743" s="9"/>
       <c r="D743" s="9"/>
       <c r="E743" s="9"/>
@@ -21619,7 +21632,7 @@
       <c r="J743" s="9"/>
       <c r="K743" s="9"/>
     </row>
-    <row r="744" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C744" s="9"/>
       <c r="D744" s="9"/>
       <c r="E744" s="9"/>
@@ -21630,7 +21643,7 @@
       <c r="J744" s="9"/>
       <c r="K744" s="9"/>
     </row>
-    <row r="745" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C745" s="9"/>
       <c r="D745" s="9"/>
       <c r="E745" s="9"/>
@@ -21641,7 +21654,7 @@
       <c r="J745" s="9"/>
       <c r="K745" s="9"/>
     </row>
-    <row r="746" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C746" s="9"/>
       <c r="D746" s="9"/>
       <c r="E746" s="9"/>
@@ -21652,7 +21665,7 @@
       <c r="J746" s="9"/>
       <c r="K746" s="9"/>
     </row>
-    <row r="747" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C747" s="9"/>
       <c r="D747" s="9"/>
       <c r="E747" s="9"/>
@@ -21663,7 +21676,7 @@
       <c r="J747" s="9"/>
       <c r="K747" s="9"/>
     </row>
-    <row r="748" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C748" s="9"/>
       <c r="D748" s="9"/>
       <c r="E748" s="9"/>
@@ -21674,7 +21687,7 @@
       <c r="J748" s="9"/>
       <c r="K748" s="9"/>
     </row>
-    <row r="749" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C749" s="9"/>
       <c r="D749" s="9"/>
       <c r="E749" s="9"/>
@@ -21685,7 +21698,7 @@
       <c r="J749" s="9"/>
       <c r="K749" s="9"/>
     </row>
-    <row r="750" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C750" s="9"/>
       <c r="D750" s="9"/>
       <c r="E750" s="9"/>
@@ -21696,7 +21709,7 @@
       <c r="J750" s="9"/>
       <c r="K750" s="9"/>
     </row>
-    <row r="751" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C751" s="9"/>
       <c r="D751" s="9"/>
       <c r="E751" s="9"/>
@@ -21707,7 +21720,7 @@
       <c r="J751" s="9"/>
       <c r="K751" s="9"/>
     </row>
-    <row r="752" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C752" s="9"/>
       <c r="D752" s="9"/>
       <c r="E752" s="9"/>
@@ -21718,7 +21731,7 @@
       <c r="J752" s="9"/>
       <c r="K752" s="9"/>
     </row>
-    <row r="753" spans="3:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C753" s="9"/>
       <c r="D753" s="9"/>
       <c r="E753" s="9"/>
@@ -21729,7 +21742,7 @@
       <c r="J753" s="9"/>
       <c r="K753" s="9"/>
     </row>
-    <row r="754" spans="3:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C754" s="9"/>
       <c r="D754" s="9"/>
       <c r="E754" s="9"/>
@@ -21740,7 +21753,7 @@
       <c r="J754" s="9"/>
       <c r="K754" s="9"/>
     </row>
-    <row r="755" spans="3:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C755" s="9"/>
       <c r="D755" s="9"/>
       <c r="E755" s="9"/>
@@ -21751,7 +21764,7 @@
       <c r="J755" s="9"/>
       <c r="K755" s="9"/>
     </row>
-    <row r="756" spans="3:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C756" s="9"/>
       <c r="D756" s="9"/>
       <c r="E756" s="9"/>
@@ -21762,7 +21775,7 @@
       <c r="J756" s="9"/>
       <c r="K756" s="9"/>
     </row>
-    <row r="757" spans="3:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C757" s="9"/>
       <c r="D757" s="9"/>
       <c r="E757" s="9"/>
@@ -21773,7 +21786,7 @@
       <c r="J757" s="9"/>
       <c r="K757" s="9"/>
     </row>
-    <row r="758" spans="3:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C758" s="9"/>
       <c r="D758" s="9"/>
       <c r="E758" s="9"/>
@@ -21784,7 +21797,7 @@
       <c r="J758" s="9"/>
       <c r="K758" s="9"/>
     </row>
-    <row r="759" spans="3:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C759" s="9"/>
       <c r="D759" s="9"/>
       <c r="E759" s="9"/>
@@ -21795,7 +21808,7 @@
       <c r="J759" s="9"/>
       <c r="K759" s="9"/>
     </row>
-    <row r="760" spans="3:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C760" s="9"/>
       <c r="D760" s="9"/>
       <c r="E760" s="9"/>
@@ -21806,7 +21819,7 @@
       <c r="J760" s="9"/>
       <c r="K760" s="9"/>
     </row>
-    <row r="761" spans="3:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C761" s="9"/>
       <c r="D761" s="9"/>
       <c r="E761" s="9"/>
@@ -21817,7 +21830,7 @@
       <c r="J761" s="9"/>
       <c r="K761" s="9"/>
     </row>
-    <row r="762" spans="3:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C762" s="9"/>
       <c r="D762" s="9"/>
       <c r="E762" s="9"/>
@@ -21828,7 +21841,7 @@
       <c r="J762" s="9"/>
       <c r="K762" s="9"/>
     </row>
-    <row r="763" spans="3:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C763" s="9"/>
       <c r="D763" s="9"/>
       <c r="E763" s="9"/>
@@ -21839,7 +21852,7 @@
       <c r="J763" s="9"/>
       <c r="K763" s="9"/>
     </row>
-    <row r="764" spans="3:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C764" s="9"/>
       <c r="D764" s="9"/>
       <c r="E764" s="9"/>
@@ -21850,7 +21863,7 @@
       <c r="J764" s="9"/>
       <c r="K764" s="9"/>
     </row>
-    <row r="765" spans="3:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C765" s="9"/>
       <c r="D765" s="9"/>
       <c r="E765" s="9"/>
@@ -21861,7 +21874,7 @@
       <c r="J765" s="9"/>
       <c r="K765" s="9"/>
     </row>
-    <row r="766" spans="3:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C766" s="9"/>
       <c r="D766" s="9"/>
       <c r="E766" s="9"/>
@@ -21872,7 +21885,7 @@
       <c r="J766" s="9"/>
       <c r="K766" s="9"/>
     </row>
-    <row r="767" spans="3:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C767" s="9"/>
       <c r="D767" s="9"/>
       <c r="E767" s="9"/>
